--- a/Data processing/SMD_compcase_es.xlsx
+++ b/Data processing/SMD_compcase_es.xlsx
@@ -25062,7 +25062,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -25148,7 +25148,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -25234,7 +25234,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -25320,7 +25320,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -29866,7 +29866,7 @@
       </c>
       <c r="E345" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F345" t="inlineStr">
@@ -29952,7 +29952,7 @@
       </c>
       <c r="E346" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F346" t="inlineStr">
@@ -30124,7 +30124,7 @@
       </c>
       <c r="E348" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F348" t="inlineStr">
@@ -30210,7 +30210,7 @@
       </c>
       <c r="E349" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F349" t="inlineStr">
@@ -30296,7 +30296,7 @@
       </c>
       <c r="E350" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F350" t="inlineStr">
@@ -30382,7 +30382,7 @@
       </c>
       <c r="E351" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F351" t="inlineStr">
@@ -30468,7 +30468,7 @@
       </c>
       <c r="E352" t="inlineStr">
         <is>
-          <t>Broadleaves</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F352" t="inlineStr">
@@ -30554,7 +30554,7 @@
       </c>
       <c r="E353" t="inlineStr">
         <is>
-          <t>Conifers</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F353" t="inlineStr">
@@ -52052,7 +52052,7 @@
       </c>
       <c r="B605" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C605" t="inlineStr">
@@ -52135,7 +52135,7 @@
       </c>
       <c r="B606" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C606" t="inlineStr">
@@ -52218,7 +52218,7 @@
       </c>
       <c r="B607" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C607" t="inlineStr">
@@ -52301,7 +52301,7 @@
       </c>
       <c r="B608" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C608" t="inlineStr">
@@ -70754,7 +70754,7 @@
       </c>
       <c r="B817" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C817" t="inlineStr">
@@ -70854,7 +70854,7 @@
       </c>
       <c r="B818" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C818" t="inlineStr">
@@ -70954,7 +70954,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -73747,7 +73747,7 @@
       </c>
       <c r="E846" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F846" t="inlineStr">
@@ -73850,7 +73850,7 @@
       </c>
       <c r="E847" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F847" t="inlineStr">
@@ -73953,7 +73953,7 @@
       </c>
       <c r="E848" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F848" t="inlineStr">
@@ -74056,7 +74056,7 @@
       </c>
       <c r="E849" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F849" t="inlineStr">
@@ -74159,7 +74159,7 @@
       </c>
       <c r="E850" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F850" t="inlineStr">
@@ -74262,7 +74262,7 @@
       </c>
       <c r="E851" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F851" t="inlineStr">
@@ -74365,7 +74365,7 @@
       </c>
       <c r="E852" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F852" t="inlineStr">
@@ -74468,7 +74468,7 @@
       </c>
       <c r="E853" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F853" t="inlineStr">
@@ -74571,7 +74571,7 @@
       </c>
       <c r="E854" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F854" t="inlineStr">
@@ -74674,7 +74674,7 @@
       </c>
       <c r="E855" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F855" t="inlineStr">
@@ -74777,7 +74777,7 @@
       </c>
       <c r="E856" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F856" t="inlineStr">
@@ -74880,7 +74880,7 @@
       </c>
       <c r="E857" t="inlineStr">
         <is>
-          <t>Quercus sp. and Carya sp.</t>
+          <t>Various</t>
         </is>
       </c>
       <c r="F857" t="inlineStr">
@@ -83463,7 +83463,7 @@
       </c>
       <c r="B941" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C941" t="inlineStr">
@@ -83566,7 +83566,7 @@
       </c>
       <c r="B942" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C942" t="inlineStr">
@@ -83669,7 +83669,7 @@
       </c>
       <c r="B943" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C943" t="inlineStr">
@@ -83772,7 +83772,7 @@
       </c>
       <c r="B944" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C944" t="inlineStr">
@@ -83875,7 +83875,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -83978,7 +83978,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -84081,7 +84081,7 @@
       </c>
       <c r="B947" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C947" t="inlineStr">
@@ -84184,7 +84184,7 @@
       </c>
       <c r="B948" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C948" t="inlineStr">
@@ -84287,7 +84287,7 @@
       </c>
       <c r="B949" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C949" t="inlineStr">
@@ -84390,7 +84390,7 @@
       </c>
       <c r="B950" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C950" t="inlineStr">
@@ -84493,7 +84493,7 @@
       </c>
       <c r="B951" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C951" t="inlineStr">
@@ -84596,7 +84596,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>Plant refuge</t>
+          <t>Neighbour effects</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">

--- a/Data processing/SMD_compcase_es.xlsx
+++ b/Data processing/SMD_compcase_es.xlsx
@@ -568,6 +568,11 @@
       <c r="T2">
         <v>5.059644256269408</v>
       </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t>N</t>
@@ -659,6 +664,11 @@
       <c r="T3">
         <v>5.059644256269408</v>
       </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
           <t>N</t>
@@ -750,6 +760,11 @@
       <c r="T4">
         <v>4.743416490252569</v>
       </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
           <t>N</t>
@@ -841,6 +856,11 @@
       <c r="T5">
         <v>4.427188724235731</v>
       </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
           <t>N</t>
@@ -932,6 +952,11 @@
       <c r="T6">
         <v>4.427188724235731</v>
       </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
           <t>N</t>
@@ -1023,6 +1048,11 @@
       <c r="T7">
         <v>3.794733192202055</v>
       </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
           <t>N</t>
@@ -1114,6 +1144,11 @@
       <c r="T8">
         <v>3.794733192202055</v>
       </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V8" t="inlineStr">
         <is>
           <t>N</t>
@@ -1205,6 +1240,11 @@
       <c r="T9">
         <v>8.968609865470855</v>
       </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
           <t>N</t>
@@ -1296,6 +1336,11 @@
       <c r="T10">
         <v>6.9506726457399</v>
       </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t>N</t>
@@ -1387,6 +1432,11 @@
       <c r="T11">
         <v>4.708520179372212</v>
       </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t>N</t>
@@ -1478,6 +1528,11 @@
       <c r="T12">
         <v>33.4012219959267</v>
       </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
           <t>N</t>
@@ -1569,6 +1624,11 @@
       <c r="T13">
         <v>4.444444444444442</v>
       </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr">
         <is>
           <t>N</t>
@@ -1660,6 +1720,11 @@
       <c r="T14">
         <v>3.111111111111108</v>
       </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
           <t>N</t>
@@ -1751,6 +1816,11 @@
       <c r="T15">
         <v>20.67311727286859</v>
       </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
           <t>N</t>
@@ -1842,6 +1912,11 @@
       <c r="T16">
         <v>22.91188363632956</v>
       </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
           <t>N</t>
@@ -1933,6 +2008,11 @@
       <c r="T17">
         <v>8.922902096189427</v>
       </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V17" t="inlineStr">
         <is>
           <t>N</t>
@@ -2024,6 +2104,11 @@
       <c r="T18">
         <v>13.0687395728505</v>
       </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V18" t="inlineStr">
         <is>
           <t>N</t>
@@ -2115,6 +2200,11 @@
       <c r="T19">
         <v>13.25456682304882</v>
       </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V19" t="inlineStr">
         <is>
           <t>N</t>
@@ -2206,6 +2296,11 @@
       <c r="T20">
         <v>18.61860323819894</v>
       </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V20" t="inlineStr">
         <is>
           <t>N</t>
@@ -2297,6 +2392,11 @@
       <c r="T21">
         <v>25.67931609625525</v>
       </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V21" t="inlineStr">
         <is>
           <t>N</t>
@@ -2388,6 +2488,11 @@
       <c r="T22">
         <v>4.199642841956929</v>
       </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V22" t="inlineStr">
         <is>
           <t>N</t>
@@ -2479,6 +2584,11 @@
       <c r="T23">
         <v>2.75378527364306</v>
       </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr">
         <is>
           <t>N</t>
@@ -2570,6 +2680,11 @@
       <c r="T24">
         <v>9.176038106104128</v>
       </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr">
         <is>
           <t>N</t>
@@ -2661,6 +2776,11 @@
       <c r="T25">
         <v>7.290739197693234</v>
       </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr">
         <is>
           <t>N</t>
@@ -2752,6 +2872,11 @@
       <c r="T26">
         <v>11.78700023229038</v>
       </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr">
         <is>
           <t>N</t>
@@ -2843,6 +2968,11 @@
       <c r="T27">
         <v>4.825443014366689</v>
       </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr">
         <is>
           <t>N</t>
@@ -2934,6 +3064,11 @@
       <c r="T28">
         <v>8.637097529185445</v>
       </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V28" t="inlineStr">
         <is>
           <t>N</t>
@@ -3025,6 +3160,11 @@
       <c r="T29">
         <v>11.28778354111215</v>
       </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V29" t="inlineStr">
         <is>
           <t>N</t>
@@ -3116,6 +3256,11 @@
       <c r="T30">
         <v>16.1158295754592</v>
       </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V30" t="inlineStr">
         <is>
           <t>N</t>
@@ -3207,6 +3352,11 @@
       <c r="T31">
         <v>12.60713433224019</v>
       </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V31" t="inlineStr">
         <is>
           <t>N</t>
@@ -3298,6 +3448,11 @@
       <c r="T32">
         <v>5.782561593081199</v>
       </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V32" t="inlineStr">
         <is>
           <t>N</t>
@@ -3389,6 +3544,11 @@
       <c r="T33">
         <v>3.919783907609312</v>
       </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V33" t="inlineStr">
         <is>
           <t>N</t>
@@ -3480,6 +3640,11 @@
       <c r="T34">
         <v>5.631738284139697</v>
       </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V34" t="inlineStr">
         <is>
           <t>N</t>
@@ -3571,6 +3736,11 @@
       <c r="T35">
         <v>5.924660732715736</v>
       </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V35" t="inlineStr">
         <is>
           <t>N</t>
@@ -3662,6 +3832,11 @@
       <c r="T36">
         <v>5.112639885745391</v>
       </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V36" t="inlineStr">
         <is>
           <t>N</t>
@@ -3753,6 +3928,11 @@
       <c r="T37">
         <v>63</v>
       </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V37" t="inlineStr">
         <is>
           <t>N</t>
@@ -3844,6 +4024,11 @@
       <c r="T38">
         <v>45</v>
       </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V38" t="inlineStr">
         <is>
           <t>N</t>
@@ -3935,6 +4120,11 @@
       <c r="T39">
         <v>29</v>
       </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V39" t="inlineStr">
         <is>
           <t>N</t>
@@ -4026,6 +4216,11 @@
       <c r="T40">
         <v>44</v>
       </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V40" t="inlineStr">
         <is>
           <t>N</t>
@@ -4117,6 +4312,11 @@
       <c r="T41">
         <v>18</v>
       </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V41" t="inlineStr">
         <is>
           <t>N</t>
@@ -4208,6 +4408,11 @@
       <c r="T42">
         <v>19</v>
       </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V42" t="inlineStr">
         <is>
           <t>N</t>
@@ -4299,6 +4504,11 @@
       <c r="T43">
         <v>19</v>
       </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V43" t="inlineStr">
         <is>
           <t>N</t>
@@ -4390,6 +4600,11 @@
       <c r="T44">
         <v>16</v>
       </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V44" t="inlineStr">
         <is>
           <t>N</t>
@@ -4481,6 +4696,11 @@
       <c r="T45">
         <v>73.79773735328968</v>
       </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr">
         <is>
           <t>N</t>
@@ -4572,6 +4792,11 @@
       <c r="T46">
         <v>49.99201562642202</v>
       </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V46" t="inlineStr">
         <is>
           <t>N</t>
@@ -4663,6 +4888,11 @@
       <c r="T47">
         <v>49.1984915688597</v>
       </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V47" t="inlineStr">
         <is>
           <t>N</t>
@@ -4754,6 +4984,11 @@
       <c r="T48">
         <v>19.60000000000002</v>
       </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V48" t="inlineStr">
         <is>
           <t>N</t>
@@ -4845,6 +5080,11 @@
       <c r="T49">
         <v>19.20000000000005</v>
       </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V49" t="inlineStr">
         <is>
           <t>N</t>
@@ -4936,6 +5176,11 @@
       <c r="T50">
         <v>18.40000000000003</v>
       </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V50" t="inlineStr">
         <is>
           <t>N</t>
@@ -5027,6 +5272,11 @@
       <c r="T51">
         <v>20.70512084465777</v>
       </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V51" t="inlineStr">
         <is>
           <t>N</t>
@@ -5118,6 +5368,11 @@
       <c r="T52">
         <v>20.70512084465777</v>
       </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V52" t="inlineStr">
         <is>
           <t>N</t>
@@ -5209,6 +5464,11 @@
       <c r="T53">
         <v>17.74724643827819</v>
       </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V53" t="inlineStr">
         <is>
           <t>N</t>
@@ -5300,6 +5560,11 @@
       <c r="T54">
         <v>17.74724643827804</v>
       </c>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V54" t="inlineStr">
         <is>
           <t>N</t>
@@ -5391,6 +5656,11 @@
       <c r="T55">
         <v>17.00777783668329</v>
       </c>
+      <c r="U55" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V55" t="inlineStr">
         <is>
           <t>N</t>
@@ -5482,6 +5752,11 @@
       <c r="T56">
         <v>15.52884063349322</v>
       </c>
+      <c r="U56" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V56" t="inlineStr">
         <is>
           <t>N</t>
@@ -5573,6 +5848,11 @@
       <c r="T57">
         <v>10.15228426395939</v>
       </c>
+      <c r="U57" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V57" t="inlineStr">
         <is>
           <t>N</t>
@@ -5664,6 +5944,11 @@
       <c r="T58">
         <v>9.746192893401002</v>
       </c>
+      <c r="U58" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V58" t="inlineStr">
         <is>
           <t>N</t>
@@ -5755,6 +6040,11 @@
       <c r="T59">
         <v>9.340101522842644</v>
       </c>
+      <c r="U59" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V59" t="inlineStr">
         <is>
           <t>N</t>
@@ -5846,6 +6136,11 @@
       <c r="T60">
         <v>9.775825027673852</v>
       </c>
+      <c r="U60" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V60" t="inlineStr">
         <is>
           <t>N</t>
@@ -5937,6 +6232,11 @@
       <c r="T61">
         <v>9.775825027673818</v>
       </c>
+      <c r="U61" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V61" t="inlineStr">
         <is>
           <t>N</t>
@@ -6028,6 +6328,11 @@
       <c r="T62">
         <v>9.775825027673781</v>
       </c>
+      <c r="U62" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V62" t="inlineStr">
         <is>
           <t>N</t>
@@ -6119,6 +6424,11 @@
       <c r="T63">
         <v>9.40692597002572</v>
       </c>
+      <c r="U63" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V63" t="inlineStr">
         <is>
           <t>N</t>
@@ -6210,6 +6520,11 @@
       <c r="T64">
         <v>9.222476441201707</v>
       </c>
+      <c r="U64" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V64" t="inlineStr">
         <is>
           <t>N</t>
@@ -6301,6 +6616,11 @@
       <c r="T65">
         <v>9.03802691237769</v>
       </c>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V65" t="inlineStr">
         <is>
           <t>N</t>
@@ -6392,6 +6712,11 @@
       <c r="T66">
         <v>5.030202150358318</v>
       </c>
+      <c r="U66" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V66" t="inlineStr">
         <is>
           <t>N</t>
@@ -6483,6 +6808,11 @@
       <c r="T67">
         <v>4.811497709038387</v>
       </c>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V67" t="inlineStr">
         <is>
           <t>N</t>
@@ -6574,6 +6904,11 @@
       <c r="T68">
         <v>4.592793267718458</v>
       </c>
+      <c r="U68" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V68" t="inlineStr">
         <is>
           <t>N</t>
@@ -6665,6 +7000,11 @@
       <c r="T69">
         <v>4.592793267718458</v>
       </c>
+      <c r="U69" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V69" t="inlineStr">
         <is>
           <t>N</t>
@@ -6756,6 +7096,11 @@
       <c r="T70">
         <v>4.374088826398538</v>
       </c>
+      <c r="U70" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V70" t="inlineStr">
         <is>
           <t>N</t>
@@ -6847,6 +7192,11 @@
       <c r="T71">
         <v>4.37408882639853</v>
       </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V71" t="inlineStr">
         <is>
           <t>N</t>
@@ -6938,6 +7288,11 @@
       <c r="T72">
         <v>16.4</v>
       </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V72" t="inlineStr">
         <is>
           <t>N</t>
@@ -7029,6 +7384,11 @@
       <c r="T73">
         <v>21.82933805684451</v>
       </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V73" t="inlineStr">
         <is>
           <t>N</t>
@@ -7120,6 +7480,11 @@
       <c r="T74">
         <v>10.295630140987</v>
       </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V74" t="inlineStr">
         <is>
           <t>N</t>
@@ -7211,6 +7576,11 @@
       <c r="T75">
         <v>15</v>
       </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V75" t="inlineStr">
         <is>
           <t>N</t>
@@ -7302,6 +7672,11 @@
       <c r="T76">
         <v>12.26417547167359</v>
       </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V76" t="inlineStr">
         <is>
           <t>N</t>
@@ -7393,6 +7768,11 @@
       <c r="T77">
         <v>5.172040216394301</v>
       </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V77" t="inlineStr">
         <is>
           <t>N</t>
@@ -7484,6 +7864,11 @@
       <c r="T78">
         <v>9.228217049999136</v>
       </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V78" t="inlineStr">
         <is>
           <t>N</t>
@@ -7575,6 +7960,11 @@
       <c r="T79">
         <v>2.366209499999778</v>
       </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V79" t="inlineStr">
         <is>
           <t>N</t>
@@ -7666,6 +8056,11 @@
       <c r="T80">
         <v>1.656346649999843</v>
       </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V80" t="inlineStr">
         <is>
           <t>N</t>
@@ -7757,6 +8152,11 @@
       <c r="T81">
         <v>1.285404346347183</v>
       </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V81" t="inlineStr">
         <is>
           <t>N</t>
@@ -7848,6 +8248,11 @@
       <c r="T82">
         <v>1.071170288622654</v>
       </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V82" t="inlineStr">
         <is>
           <t>N</t>
@@ -7939,6 +8344,11 @@
       <c r="T83">
         <v>1.071170288622652</v>
       </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V83" t="inlineStr">
         <is>
           <t>N</t>
@@ -8030,6 +8440,11 @@
       <c r="T84">
         <v>147.1842213037836</v>
       </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V84" t="inlineStr">
         <is>
           <t>N</t>
@@ -8121,6 +8536,11 @@
       <c r="T85">
         <v>136.8522478032664</v>
       </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V85" t="inlineStr">
         <is>
           <t>N</t>
@@ -8212,6 +8632,11 @@
       <c r="T86">
         <v>79.25304224049886</v>
       </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V86" t="inlineStr">
         <is>
           <t>N</t>
@@ -8303,6 +8728,11 @@
       <c r="T87">
         <v>78.201284459009</v>
       </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V87" t="inlineStr">
         <is>
           <t>N</t>
@@ -8394,6 +8824,11 @@
       <c r="T88">
         <v>39.62652112024943</v>
       </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V88" t="inlineStr">
         <is>
           <t>N</t>
@@ -8485,6 +8920,11 @@
       <c r="T89">
         <v>39.1006422295045</v>
       </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V89" t="inlineStr">
         <is>
           <t>N</t>
@@ -8576,6 +9016,11 @@
       <c r="T90">
         <v>1.611412941075834</v>
       </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V90" t="inlineStr">
         <is>
           <t>N</t>
@@ -8667,6 +9112,11 @@
       <c r="T91">
         <v>1.117642075766571</v>
       </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V91" t="inlineStr">
         <is>
           <t>N</t>
@@ -8758,6 +9208,11 @@
       <c r="T92">
         <v>1.280761492238114</v>
       </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V92" t="inlineStr">
         <is>
           <t>N</t>
@@ -8849,6 +9304,11 @@
       <c r="T93">
         <v>1.243901463007903</v>
       </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V93" t="inlineStr">
         <is>
           <t>N</t>
@@ -8940,6 +9400,11 @@
       <c r="T94">
         <v>47.05349493185599</v>
       </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V94" t="inlineStr">
         <is>
           <t>N</t>
@@ -9031,6 +9496,11 @@
       <c r="T95">
         <v>0.944470015993685</v>
       </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V95" t="inlineStr">
         <is>
           <t>N</t>
@@ -9122,6 +9592,11 @@
       <c r="T96">
         <v>0.5780160586891707</v>
       </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V96" t="inlineStr">
         <is>
           <t>N</t>
@@ -9213,6 +9688,11 @@
       <c r="T97">
         <v>0.3967726949130591</v>
       </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V97" t="inlineStr">
         <is>
           <t>N</t>
@@ -9304,6 +9784,11 @@
       <c r="T98">
         <v>0.5953523699830585</v>
       </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V98" t="inlineStr">
         <is>
           <t>N</t>
@@ -9395,6 +9880,11 @@
       <c r="T99">
         <v>0.4718756898449707</v>
       </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V99" t="inlineStr">
         <is>
           <t>N</t>
@@ -9486,6 +9976,11 @@
       <c r="T100">
         <v>0.3707135975771204</v>
       </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V100" t="inlineStr">
         <is>
           <t>N</t>
@@ -9577,6 +10072,11 @@
       <c r="T101">
         <v>0.4672302361440787</v>
       </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V101" t="inlineStr">
         <is>
           <t>N</t>
@@ -9668,6 +10168,11 @@
       <c r="T102">
         <v>0.07283716445093343</v>
       </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V102" t="inlineStr">
         <is>
           <t>N</t>
@@ -9759,6 +10264,11 @@
       <c r="T103">
         <v>0.06799615649355516</v>
       </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V103" t="inlineStr">
         <is>
           <t>N</t>
@@ -9850,6 +10360,11 @@
       <c r="T104">
         <v>0.07098227163324976</v>
       </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V104" t="inlineStr">
         <is>
           <t>N</t>
@@ -9941,6 +10456,11 @@
       <c r="T105">
         <v>64.39520833992898</v>
       </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V105" t="inlineStr">
         <is>
           <t>N</t>
@@ -10032,6 +10552,11 @@
       <c r="T106">
         <v>43.24261566468674</v>
       </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V106" t="inlineStr">
         <is>
           <t>N</t>
@@ -10123,6 +10648,11 @@
       <c r="T107">
         <v>58.57473858242988</v>
       </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V107" t="inlineStr">
         <is>
           <t>N</t>
@@ -10214,6 +10744,11 @@
       <c r="T108">
         <v>58.76698753151646</v>
       </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V108" t="inlineStr">
         <is>
           <t>N</t>
@@ -10305,6 +10840,11 @@
       <c r="T109">
         <v>44.15125909363132</v>
       </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V109" t="inlineStr">
         <is>
           <t>N</t>
@@ -10396,6 +10936,11 @@
       <c r="T110">
         <v>48.88251221040097</v>
       </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V110" t="inlineStr">
         <is>
           <t>N</t>
@@ -10487,6 +11032,11 @@
       <c r="T111">
         <v>42.43109043964621</v>
       </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V111" t="inlineStr">
         <is>
           <t>N</t>
@@ -10578,6 +11128,11 @@
       <c r="T112">
         <v>32.46096556965436</v>
       </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V112" t="inlineStr">
         <is>
           <t>N</t>
@@ -10669,6 +11224,11 @@
       <c r="T113">
         <v>35.13347564803561</v>
       </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V113" t="inlineStr">
         <is>
           <t>N</t>
@@ -10760,6 +11320,11 @@
       <c r="T114">
         <v>34.15684497256051</v>
       </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V114" t="inlineStr">
         <is>
           <t>N</t>
@@ -10851,6 +11416,11 @@
       <c r="T115">
         <v>28.19948778100608</v>
       </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V115" t="inlineStr">
         <is>
           <t>N</t>
@@ -10942,6 +11512,11 @@
       <c r="T116">
         <v>29.66639914272101</v>
       </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V116" t="inlineStr">
         <is>
           <t>N</t>
@@ -11033,6 +11608,11 @@
       <c r="T117">
         <v>5.678863878408688</v>
       </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V117" t="inlineStr">
         <is>
           <t>N</t>
@@ -11124,6 +11704,11 @@
       <c r="T118">
         <v>4.301055095045846</v>
       </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V118" t="inlineStr">
         <is>
           <t>N</t>
@@ -11215,6 +11800,11 @@
       <c r="T119">
         <v>4.317160380869913</v>
       </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V119" t="inlineStr">
         <is>
           <t>N</t>
@@ -11306,6 +11896,11 @@
       <c r="T120">
         <v>1.1</v>
       </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V120" t="inlineStr">
         <is>
           <t>N</t>
@@ -11397,6 +11992,11 @@
       <c r="T121">
         <v>1</v>
       </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V121" t="inlineStr">
         <is>
           <t>N</t>
@@ -11488,6 +12088,11 @@
       <c r="T122">
         <v>1</v>
       </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V122" t="inlineStr">
         <is>
           <t>N</t>
@@ -11579,6 +12184,11 @@
       <c r="T123">
         <v>0.7</v>
       </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V123" t="inlineStr">
         <is>
           <t>N</t>
@@ -11670,6 +12280,11 @@
       <c r="T124">
         <v>0.7</v>
       </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V124" t="inlineStr">
         <is>
           <t>N</t>
@@ -11761,6 +12376,11 @@
       <c r="T125">
         <v>0.4</v>
       </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V125" t="inlineStr">
         <is>
           <t>N</t>
@@ -11852,6 +12472,11 @@
       <c r="T126">
         <v>0.7</v>
       </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V126" t="inlineStr">
         <is>
           <t>N</t>
@@ -11943,6 +12568,11 @@
       <c r="T127">
         <v>0.5</v>
       </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V127" t="inlineStr">
         <is>
           <t>N</t>
@@ -12034,6 +12664,11 @@
       <c r="T128">
         <v>0.5</v>
       </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V128" t="inlineStr">
         <is>
           <t>N</t>
@@ -12125,6 +12760,11 @@
       <c r="T129">
         <v>0.4</v>
       </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V129" t="inlineStr">
         <is>
           <t>N</t>
@@ -12216,6 +12856,11 @@
       <c r="T130">
         <v>0.6</v>
       </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V130" t="inlineStr">
         <is>
           <t>N</t>
@@ -12307,6 +12952,11 @@
       <c r="T131">
         <v>0.4</v>
       </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V131" t="inlineStr">
         <is>
           <t>N</t>
@@ -12398,6 +13048,11 @@
       <c r="T132">
         <v>0.7</v>
       </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V132" t="inlineStr">
         <is>
           <t>N</t>
@@ -12489,6 +13144,11 @@
       <c r="T133">
         <v>0.4</v>
       </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V133" t="inlineStr">
         <is>
           <t>N</t>
@@ -12580,6 +13240,11 @@
       <c r="T134">
         <v>1.164171000174398</v>
       </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V134" t="inlineStr">
         <is>
           <t>N</t>
@@ -12671,6 +13336,11 @@
       <c r="T135">
         <v>1.191597451671995</v>
       </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V135" t="inlineStr">
         <is>
           <t>N</t>
@@ -12762,6 +13432,11 @@
       <c r="T136">
         <v>0.2951871657754008</v>
       </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V136" t="inlineStr">
         <is>
           <t>N</t>
@@ -12853,6 +13528,11 @@
       <c r="T137">
         <v>0.4762517727986182</v>
       </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V137" t="inlineStr">
         <is>
           <t>N</t>
@@ -12944,6 +13624,11 @@
       <c r="T138">
         <v>0.7396122113826177</v>
       </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V138" t="inlineStr">
         <is>
           <t>N</t>
@@ -13035,6 +13720,11 @@
       <c r="T139">
         <v>0.0513368983957223</v>
       </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V139" t="inlineStr">
         <is>
           <t>N</t>
@@ -13126,6 +13816,11 @@
       <c r="T140">
         <v>18</v>
       </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V140" t="inlineStr">
         <is>
           <t>N</t>
@@ -13217,6 +13912,11 @@
       <c r="T141">
         <v>12</v>
       </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V141" t="inlineStr">
         <is>
           <t>N</t>
@@ -13308,6 +14008,11 @@
       <c r="T142">
         <v>20.6155281280883</v>
       </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V142" t="inlineStr">
         <is>
           <t>N</t>
@@ -13399,6 +14104,11 @@
       <c r="T143">
         <v>16.49242250247064</v>
       </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V143" t="inlineStr">
         <is>
           <t>N</t>
@@ -13490,6 +14200,11 @@
       <c r="T144">
         <v>25.61249694973139</v>
       </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V144" t="inlineStr">
         <is>
           <t>N</t>
@@ -13581,6 +14296,11 @@
       <c r="T145">
         <v>19.20937271229855</v>
       </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V145" t="inlineStr">
         <is>
           <t>N</t>
@@ -13672,6 +14392,11 @@
       <c r="T146">
         <v>24.0786240786241</v>
       </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V146" t="inlineStr">
         <is>
           <t>N</t>
@@ -13763,6 +14488,11 @@
       <c r="T147">
         <v>19.95085995085992</v>
       </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V147" t="inlineStr">
         <is>
           <t>N</t>
@@ -13854,6 +14584,11 @@
       <c r="T148">
         <v>31.20188041007964</v>
       </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V148" t="inlineStr">
         <is>
           <t>N</t>
@@ -13945,6 +14680,11 @@
       <c r="T149">
         <v>41.84842867707954</v>
       </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V149" t="inlineStr">
         <is>
           <t>N</t>
@@ -14036,6 +14776,11 @@
       <c r="T150">
         <v>18.43747478777437</v>
       </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V150" t="inlineStr">
         <is>
           <t>N</t>
@@ -14127,6 +14872,11 @@
       <c r="T151">
         <v>15.41784214418722</v>
       </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V151" t="inlineStr">
         <is>
           <t>N</t>
@@ -14218,6 +14968,11 @@
       <c r="T152">
         <v>0.9308061022576076</v>
       </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V152" t="inlineStr">
         <is>
           <t>N</t>
@@ -14309,6 +15064,11 @@
       <c r="T153">
         <v>0.07348469228349533</v>
       </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V153" t="inlineStr">
         <is>
           <t>N</t>
@@ -14400,6 +15160,11 @@
       <c r="T154">
         <v>86.91756554345042</v>
       </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V154" t="inlineStr">
         <is>
           <t>N</t>
@@ -14491,6 +15256,11 @@
       <c r="T155">
         <v>24.30925749585947</v>
       </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V155" t="inlineStr">
         <is>
           <t>N</t>
@@ -14582,6 +15352,11 @@
       <c r="T156">
         <v>273.226060250482</v>
       </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V156" t="inlineStr">
         <is>
           <t>N</t>
@@ -14673,6 +15448,11 @@
       <c r="T157">
         <v>88.78666904440102</v>
       </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V157" t="inlineStr">
         <is>
           <t>N</t>
@@ -14764,6 +15544,11 @@
       <c r="T158">
         <v>116.6666666666666</v>
       </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V158" t="inlineStr">
         <is>
           <t>N</t>
@@ -14855,6 +15640,11 @@
       <c r="T159">
         <v>115.1315789473683</v>
       </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V159" t="inlineStr">
         <is>
           <t>N</t>
@@ -14946,6 +15736,11 @@
       <c r="T160">
         <v>52.19298245614035</v>
       </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V160" t="inlineStr">
         <is>
           <t>N</t>
@@ -15037,6 +15832,11 @@
       <c r="T161">
         <v>735.5188644759562</v>
       </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V161" t="inlineStr">
         <is>
           <t>N</t>
@@ -15128,6 +15928,11 @@
       <c r="T162">
         <v>661.4378277661477</v>
       </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V162" t="inlineStr">
         <is>
           <t>N</t>
@@ -15219,6 +16024,11 @@
       <c r="T163">
         <v>613.814304166985</v>
       </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V163" t="inlineStr">
         <is>
           <t>N</t>
@@ -15310,6 +16120,11 @@
       <c r="T164">
         <v>608.5228015448558</v>
       </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V164" t="inlineStr">
         <is>
           <t>N</t>
@@ -15401,6 +16216,11 @@
       <c r="T165">
         <v>603.2312989227266</v>
       </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V165" t="inlineStr">
         <is>
           <t>N</t>
@@ -15492,6 +16312,11 @@
       <c r="T166">
         <v>587.3567910563391</v>
       </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V166" t="inlineStr">
         <is>
           <t>N</t>
@@ -15583,6 +16408,11 @@
       <c r="T167">
         <v>582.0652884342099</v>
       </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V167" t="inlineStr">
         <is>
           <t>N</t>
@@ -15674,6 +16504,11 @@
       <c r="T168">
         <v>582.0652884342099</v>
       </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V168" t="inlineStr">
         <is>
           <t>N</t>
@@ -15765,6 +16600,11 @@
       <c r="T169">
         <v>582.0652884342099</v>
       </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V169" t="inlineStr">
         <is>
           <t>N</t>
@@ -15856,6 +16696,11 @@
       <c r="T170">
         <v>576.7737858120807</v>
       </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V170" t="inlineStr">
         <is>
           <t>N</t>
@@ -15947,6 +16792,11 @@
       <c r="T171">
         <v>576.7737858120807</v>
       </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V171" t="inlineStr">
         <is>
           <t>N</t>
@@ -16038,6 +16888,11 @@
       <c r="T172">
         <v>571.4822831899515</v>
       </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V172" t="inlineStr">
         <is>
           <t>N</t>
@@ -16129,6 +16984,11 @@
       <c r="T173">
         <v>550.3162727014349</v>
       </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V173" t="inlineStr">
         <is>
           <t>N</t>
@@ -16220,6 +17080,11 @@
       <c r="T174">
         <v>492.1097438580139</v>
       </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V174" t="inlineStr">
         <is>
           <t>N</t>
@@ -16311,6 +17176,11 @@
       <c r="T175">
         <v>476.2352359916263</v>
       </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V175" t="inlineStr">
         <is>
           <t>N</t>
@@ -16402,6 +17272,11 @@
       <c r="T176">
         <v>455.0692255031096</v>
       </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V176" t="inlineStr">
         <is>
           <t>N</t>
@@ -16493,6 +17368,11 @@
       <c r="T177">
         <v>449.7777228809804</v>
       </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V177" t="inlineStr">
         <is>
           <t>N</t>
@@ -16584,6 +17464,11 @@
       <c r="T178">
         <v>444.4862202588512</v>
       </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V178" t="inlineStr">
         <is>
           <t>N</t>
@@ -16675,6 +17560,11 @@
       <c r="T179">
         <v>444.4862202588512</v>
       </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V179" t="inlineStr">
         <is>
           <t>N</t>
@@ -16766,6 +17656,11 @@
       <c r="T180">
         <v>380.988188793301</v>
       </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V180" t="inlineStr">
         <is>
           <t>N</t>
@@ -16857,6 +17752,11 @@
       <c r="T181">
         <v>349.239173060526</v>
       </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V181" t="inlineStr">
         <is>
           <t>N</t>
@@ -16948,6 +17848,11 @@
       <c r="T182">
         <v>333.3646651941384</v>
       </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V182" t="inlineStr">
         <is>
           <t>N</t>
@@ -17039,6 +17944,11 @@
       <c r="T183">
         <v>285.7411415949758</v>
       </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V183" t="inlineStr">
         <is>
           <t>N</t>
@@ -17130,6 +18040,11 @@
       <c r="T184">
         <v>269.8666337285882</v>
       </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V184" t="inlineStr">
         <is>
           <t>N</t>
@@ -17221,6 +18136,11 @@
       <c r="T185">
         <v>4.455389994153149</v>
       </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V185" t="inlineStr">
         <is>
           <t>N</t>
@@ -17312,6 +18232,11 @@
       <c r="T186">
         <v>0.03612478373637689</v>
       </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V186" t="inlineStr">
         <is>
           <t>N</t>
@@ -17403,6 +18328,11 @@
       <c r="T187">
         <v>25.76901239861552</v>
       </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V187" t="inlineStr">
         <is>
           <t>N</t>
@@ -17494,6 +18424,11 @@
       <c r="T188">
         <v>4.4</v>
       </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V188" t="inlineStr">
         <is>
           <t>N</t>
@@ -17585,6 +18520,11 @@
       <c r="T189">
         <v>4.496220635155709</v>
       </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V189" t="inlineStr">
         <is>
           <t>N</t>
@@ -17676,6 +18616,11 @@
       <c r="T190">
         <v>2.408318915758459</v>
       </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V190" t="inlineStr">
         <is>
           <t>N</t>
@@ -17767,6 +18712,11 @@
       <c r="T191">
         <v>45.39681156204696</v>
       </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V191" t="inlineStr">
         <is>
           <t>N</t>
@@ -17858,6 +18808,11 @@
       <c r="T192">
         <v>11.68034674142853</v>
       </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V192" t="inlineStr">
         <is>
           <t>N</t>
@@ -17949,6 +18904,11 @@
       <c r="T193">
         <v>11.77794549146837</v>
       </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V193" t="inlineStr">
         <is>
           <t>N</t>
@@ -18040,6 +19000,11 @@
       <c r="T194">
         <v>47.4208814764129</v>
       </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V194" t="inlineStr">
         <is>
           <t>N</t>
@@ -18131,6 +19096,11 @@
       <c r="T195">
         <v>38.42971636883394</v>
       </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V195" t="inlineStr">
         <is>
           <t>N</t>
@@ -18222,6 +19192,11 @@
       <c r="T196">
         <v>37.50000000000009</v>
       </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V196" t="inlineStr">
         <is>
           <t>N</t>
@@ -18313,6 +19288,11 @@
       <c r="T197">
         <v>35.35533905932746</v>
       </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V197" t="inlineStr">
         <is>
           <t>N</t>
@@ -18404,6 +19384,11 @@
       <c r="T198">
         <v>37.5</v>
       </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V198" t="inlineStr">
         <is>
           <t>N</t>
@@ -18495,6 +19480,11 @@
       <c r="T199">
         <v>36.09121242583476</v>
       </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V199" t="inlineStr">
         <is>
           <t>N</t>
@@ -18586,6 +19576,11 @@
       <c r="T200">
         <v>36.09121242583476</v>
       </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V200" t="inlineStr">
         <is>
           <t>N</t>
@@ -18677,6 +19672,11 @@
       <c r="T201">
         <v>37.65327842541046</v>
       </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V201" t="inlineStr">
         <is>
           <t>N</t>
@@ -18768,6 +19768,11 @@
       <c r="T202">
         <v>37.65327842541046</v>
       </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V202" t="inlineStr">
         <is>
           <t>N</t>
@@ -18859,6 +19864,11 @@
       <c r="T203">
         <v>87.6332363945494</v>
       </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V203" t="inlineStr">
         <is>
           <t>N</t>
@@ -18950,6 +19960,11 @@
       <c r="T204">
         <v>86.3942418703666</v>
       </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V204" t="inlineStr">
         <is>
           <t>N</t>
@@ -19041,6 +20056,11 @@
       <c r="T205">
         <v>0.17</v>
       </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V205" t="inlineStr">
         <is>
           <t>N</t>
@@ -19132,6 +20152,11 @@
       <c r="T206">
         <v>0.23</v>
       </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V206" t="inlineStr">
         <is>
           <t>N</t>
@@ -19223,6 +20248,11 @@
       <c r="T207">
         <v>0.44</v>
       </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V207" t="inlineStr">
         <is>
           <t>N</t>
@@ -19314,6 +20344,11 @@
       <c r="T208">
         <v>0.27</v>
       </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V208" t="inlineStr">
         <is>
           <t>N</t>
@@ -19405,6 +20440,11 @@
       <c r="T209">
         <v>1.893444658366756</v>
       </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V209" t="inlineStr">
         <is>
           <t>N</t>
@@ -19496,6 +20536,11 @@
       <c r="T210">
         <v>1.442624501612766</v>
       </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V210" t="inlineStr">
         <is>
           <t>N</t>
@@ -19587,6 +20632,11 @@
       <c r="T211">
         <v>1.262296438911171</v>
       </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V211" t="inlineStr">
         <is>
           <t>N</t>
@@ -19678,6 +20728,11 @@
       <c r="T212">
         <v>0.6491810257257448</v>
       </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V212" t="inlineStr">
         <is>
           <t>N</t>
@@ -19769,6 +20824,11 @@
       <c r="T213">
         <v>69.63565456044456</v>
       </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V213" t="inlineStr">
         <is>
           <t>N</t>
@@ -19860,6 +20920,11 @@
       <c r="T214">
         <v>43.771691597024</v>
       </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V214" t="inlineStr">
         <is>
           <t>N</t>
@@ -19951,6 +21016,11 @@
       <c r="T215">
         <v>41.17556878593993</v>
       </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V215" t="inlineStr">
         <is>
           <t>N</t>
@@ -20042,6 +21112,11 @@
       <c r="T216">
         <v>43.67728308003336</v>
       </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V216" t="inlineStr">
         <is>
           <t>N</t>
@@ -20133,6 +21208,11 @@
       <c r="T217">
         <v>25.52363687945158</v>
       </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V217" t="inlineStr">
         <is>
           <t>N</t>
@@ -20224,6 +21304,11 @@
       <c r="T218">
         <v>22.54241163435433</v>
       </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V218" t="inlineStr">
         <is>
           <t>N</t>
@@ -20315,6 +21400,11 @@
       <c r="T219">
         <v>19.37905763069471</v>
       </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V219" t="inlineStr">
         <is>
           <t>N</t>
@@ -20406,6 +21496,11 @@
       <c r="T220">
         <v>12.77257574429756</v>
       </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V220" t="inlineStr">
         <is>
           <t>N</t>
@@ -20497,6 +21592,11 @@
       <c r="T221">
         <v>10.95491084610127</v>
       </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V221" t="inlineStr">
         <is>
           <t>N</t>
@@ -20588,6 +21688,11 @@
       <c r="T222">
         <v>15.511956022274</v>
       </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V222" t="inlineStr">
         <is>
           <t>N</t>
@@ -20679,6 +21784,11 @@
       <c r="T223">
         <v>10.41224568745433</v>
       </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V223" t="inlineStr">
         <is>
           <t>N</t>
@@ -20770,6 +21880,11 @@
       <c r="T224">
         <v>9.485107650965857</v>
       </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V224" t="inlineStr">
         <is>
           <t>N</t>
@@ -20861,6 +21976,11 @@
       <c r="T225">
         <v>1.787439613526569</v>
       </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V225" t="inlineStr">
         <is>
           <t>N</t>
@@ -20952,6 +22072,11 @@
       <c r="T226">
         <v>2.028985507246376</v>
       </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V226" t="inlineStr">
         <is>
           <t>N</t>
@@ -21043,6 +22168,11 @@
       <c r="T227">
         <v>1.159420289855072</v>
       </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V227" t="inlineStr">
         <is>
           <t>N</t>
@@ -21134,6 +22264,11 @@
       <c r="T228">
         <v>1.359477124183016</v>
       </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V228" t="inlineStr">
         <is>
           <t>N</t>
@@ -21225,6 +22360,11 @@
       <c r="T229">
         <v>0.7768440709617153</v>
       </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V229" t="inlineStr">
         <is>
           <t>N</t>
@@ -21316,6 +22456,11 @@
       <c r="T230">
         <v>13.7889822595706</v>
       </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V230" t="inlineStr">
         <is>
           <t>N</t>
@@ -21407,6 +22552,11 @@
       <c r="T231">
         <v>11.264239028945</v>
       </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V231" t="inlineStr">
         <is>
           <t>N</t>
@@ -21498,6 +22648,11 @@
       <c r="T232">
         <v>19.03267973856222</v>
       </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V232" t="inlineStr">
         <is>
           <t>N</t>
@@ -21586,6 +22741,11 @@
       <c r="T233">
         <v>262.4585300576074</v>
       </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V233" t="inlineStr">
         <is>
           <t>N</t>
@@ -21674,6 +22834,11 @@
       <c r="T234">
         <v>240.4987941757713</v>
       </c>
+      <c r="U234" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V234" t="inlineStr">
         <is>
           <t>N</t>
@@ -21762,6 +22927,11 @@
       <c r="T235">
         <v>201.8708250342283</v>
       </c>
+      <c r="U235" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V235" t="inlineStr">
         <is>
           <t>N</t>
@@ -21850,6 +23020,11 @@
       <c r="T236">
         <v>61.11685528559205</v>
       </c>
+      <c r="U236" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V236" t="inlineStr">
         <is>
           <t>N</t>
@@ -21938,6 +23113,11 @@
       <c r="T237">
         <v>53.7087516146112</v>
       </c>
+      <c r="U237" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V237" t="inlineStr">
         <is>
           <t>N</t>
@@ -22026,6 +23206,11 @@
       <c r="T238">
         <v>50.79842517244014</v>
       </c>
+      <c r="U238" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V238" t="inlineStr">
         <is>
           <t>N</t>
@@ -22114,6 +23299,11 @@
       <c r="T239">
         <v>0.004242640687119286</v>
       </c>
+      <c r="U239" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V239" t="inlineStr">
         <is>
           <t>N</t>
@@ -22202,6 +23392,11 @@
       <c r="T240">
         <v>0.00447213595499958</v>
       </c>
+      <c r="U240" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V240" t="inlineStr">
         <is>
           <t>N</t>
@@ -22290,6 +23485,11 @@
       <c r="T241">
         <v>0.00223606797749979</v>
       </c>
+      <c r="U241" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V241" t="inlineStr">
         <is>
           <t>N</t>
@@ -22378,6 +23578,11 @@
       <c r="T242">
         <v>0.00223606797749979</v>
       </c>
+      <c r="U242" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V242" t="inlineStr">
         <is>
           <t>N</t>
@@ -22469,6 +23674,11 @@
       <c r="T243">
         <v>7.177800085057718</v>
       </c>
+      <c r="U243" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V243" t="inlineStr">
         <is>
           <t>N</t>
@@ -22560,6 +23770,11 @@
       <c r="T244">
         <v>6.0121725264163</v>
       </c>
+      <c r="U244" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V244" t="inlineStr">
         <is>
           <t>N</t>
@@ -22651,6 +23866,11 @@
       <c r="T245">
         <v>5.066925830692351</v>
       </c>
+      <c r="U245" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V245" t="inlineStr">
         <is>
           <t>N</t>
@@ -22742,6 +23962,11 @@
       <c r="T246">
         <v>3.377953390100441</v>
       </c>
+      <c r="U246" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V246" t="inlineStr">
         <is>
           <t>N</t>
@@ -22833,6 +24058,11 @@
       <c r="T247">
         <v>4.49426985599013</v>
       </c>
+      <c r="U247" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V247" t="inlineStr">
         <is>
           <t>N</t>
@@ -22924,6 +24154,11 @@
       <c r="T248">
         <v>3.501633605689883</v>
       </c>
+      <c r="U248" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V248" t="inlineStr">
         <is>
           <t>N</t>
@@ -23015,6 +24250,11 @@
       <c r="T249">
         <v>4.548018888093101</v>
       </c>
+      <c r="U249" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V249" t="inlineStr">
         <is>
           <t>N</t>
@@ -23106,6 +24346,11 @@
       <c r="T250">
         <v>3.974276260512321</v>
       </c>
+      <c r="U250" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V250" t="inlineStr">
         <is>
           <t>N</t>
@@ -23197,6 +24442,11 @@
       <c r="T251">
         <v>9.021963939926458</v>
       </c>
+      <c r="U251" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V251" t="inlineStr">
         <is>
           <t>N</t>
@@ -23288,6 +24538,11 @@
       <c r="T252">
         <v>6.222718234198156</v>
       </c>
+      <c r="U252" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V252" t="inlineStr">
         <is>
           <t>N</t>
@@ -23379,6 +24634,11 @@
       <c r="T253">
         <v>8.589124590113348</v>
       </c>
+      <c r="U253" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V253" t="inlineStr">
         <is>
           <t>N</t>
@@ -23470,6 +24730,11 @@
       <c r="T254">
         <v>7.131602631776463</v>
       </c>
+      <c r="U254" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V254" t="inlineStr">
         <is>
           <t>N</t>
@@ -23561,6 +24826,11 @@
       <c r="T255">
         <v>17.37515197894712</v>
       </c>
+      <c r="U255" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V255" t="inlineStr">
         <is>
           <t>N</t>
@@ -23652,6 +24922,11 @@
       <c r="T256">
         <v>17.37515197894712</v>
       </c>
+      <c r="U256" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V256" t="inlineStr">
         <is>
           <t>N</t>
@@ -23743,6 +25018,11 @@
       <c r="T257">
         <v>4.748164654907497</v>
       </c>
+      <c r="U257" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V257" t="inlineStr">
         <is>
           <t>N</t>
@@ -23834,6 +25114,11 @@
       <c r="T258">
         <v>4.748164654907497</v>
       </c>
+      <c r="U258" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V258" t="inlineStr">
         <is>
           <t>N</t>
@@ -23925,6 +25210,11 @@
       <c r="T259">
         <v>17.37515197894712</v>
       </c>
+      <c r="U259" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V259" t="inlineStr">
         <is>
           <t>N</t>
@@ -24016,6 +25306,11 @@
       <c r="T260">
         <v>10.36812347596181</v>
       </c>
+      <c r="U260" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V260" t="inlineStr">
         <is>
           <t>N</t>
@@ -24107,6 +25402,11 @@
       <c r="T261">
         <v>4.748164654907497</v>
       </c>
+      <c r="U261" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V261" t="inlineStr">
         <is>
           <t>N</t>
@@ -24198,6 +25498,11 @@
       <c r="T262">
         <v>4.748164654907497</v>
       </c>
+      <c r="U262" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V262" t="inlineStr">
         <is>
           <t>N</t>
@@ -24289,6 +25594,11 @@
       <c r="T263">
         <v>25.80046403712298</v>
       </c>
+      <c r="U263" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V263" t="inlineStr">
         <is>
           <t>N</t>
@@ -24380,6 +25690,11 @@
       <c r="T264">
         <v>7.668845315904139</v>
       </c>
+      <c r="U264" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V264" t="inlineStr">
         <is>
           <t>N</t>
@@ -24471,6 +25786,11 @@
       <c r="T265">
         <v>47.84642097377817</v>
       </c>
+      <c r="U265" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V265" t="inlineStr">
         <is>
           <t>N</t>
@@ -24562,6 +25882,11 @@
       <c r="T266">
         <v>12.73734666247253</v>
       </c>
+      <c r="U266" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V266" t="inlineStr">
         <is>
           <t>N</t>
@@ -24653,6 +25978,11 @@
       <c r="T267">
         <v>10.56124992602675</v>
       </c>
+      <c r="U267" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V267" t="inlineStr">
         <is>
           <t>N</t>
@@ -24744,6 +26074,11 @@
       <c r="T268">
         <v>10.2469507659596</v>
       </c>
+      <c r="U268" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V268" t="inlineStr">
         <is>
           <t>N</t>
@@ -24835,6 +26170,11 @@
       <c r="T269">
         <v>2.33238075793812</v>
       </c>
+      <c r="U269" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V269" t="inlineStr">
         <is>
           <t>N</t>
@@ -24926,6 +26266,11 @@
       <c r="T270">
         <v>1.122497216032182</v>
       </c>
+      <c r="U270" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V270" t="inlineStr">
         <is>
           <t>N</t>
@@ -25017,6 +26362,11 @@
       <c r="T271">
         <v>0.2828427124746191</v>
       </c>
+      <c r="U271" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V271" t="inlineStr">
         <is>
           <t>N</t>
@@ -25108,6 +26458,11 @@
       <c r="T272">
         <v>0.1414213562373095</v>
       </c>
+      <c r="U272" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V272" t="inlineStr">
         <is>
           <t>N</t>
@@ -25199,6 +26554,11 @@
       <c r="T273">
         <v>3.49857113690718</v>
       </c>
+      <c r="U273" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V273" t="inlineStr">
         <is>
           <t>N</t>
@@ -25290,6 +26650,11 @@
       <c r="T274">
         <v>1.624807680927192</v>
       </c>
+      <c r="U274" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V274" t="inlineStr">
         <is>
           <t>N</t>
@@ -25381,6 +26746,11 @@
       <c r="T275">
         <v>1.02469507659596</v>
       </c>
+      <c r="U275" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V275" t="inlineStr">
         <is>
           <t>N</t>
@@ -25472,6 +26842,11 @@
       <c r="T276">
         <v>0.2828427124746191</v>
       </c>
+      <c r="U276" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V276" t="inlineStr">
         <is>
           <t>N</t>
@@ -25563,6 +26938,11 @@
       <c r="T277">
         <v>0.1414213562373095</v>
       </c>
+      <c r="U277" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V277" t="inlineStr">
         <is>
           <t>N</t>
@@ -25654,6 +27034,11 @@
       <c r="T278">
         <v>1.708800749063506</v>
       </c>
+      <c r="U278" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V278" t="inlineStr">
         <is>
           <t>N</t>
@@ -25745,6 +27130,11 @@
       <c r="T279">
         <v>0.9797958971132712</v>
       </c>
+      <c r="U279" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V279" t="inlineStr">
         <is>
           <t>N</t>
@@ -25836,6 +27226,11 @@
       <c r="T280">
         <v>0.3741657386773942</v>
       </c>
+      <c r="U280" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V280" t="inlineStr">
         <is>
           <t>N</t>
@@ -25927,6 +27322,11 @@
       <c r="T281">
         <v>2.33238075793812</v>
       </c>
+      <c r="U281" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V281" t="inlineStr">
         <is>
           <t>N</t>
@@ -26018,6 +27418,11 @@
       <c r="T282">
         <v>0.5656854249492381</v>
       </c>
+      <c r="U282" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V282" t="inlineStr">
         <is>
           <t>N</t>
@@ -26109,6 +27514,11 @@
       <c r="T283">
         <v>1.624807680927192</v>
       </c>
+      <c r="U283" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V283" t="inlineStr">
         <is>
           <t>N</t>
@@ -26200,6 +27610,11 @@
       <c r="T284">
         <v>1.02469507659596</v>
       </c>
+      <c r="U284" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V284" t="inlineStr">
         <is>
           <t>N</t>
@@ -26291,6 +27706,11 @@
       <c r="T285">
         <v>0.2828427124746191</v>
       </c>
+      <c r="U285" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V285" t="inlineStr">
         <is>
           <t>N</t>
@@ -26382,6 +27802,11 @@
       <c r="T286">
         <v>0.9797958971132712</v>
       </c>
+      <c r="U286" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V286" t="inlineStr">
         <is>
           <t>N</t>
@@ -26473,6 +27898,11 @@
       <c r="T287">
         <v>1.708800749063506</v>
       </c>
+      <c r="U287" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V287" t="inlineStr">
         <is>
           <t>N</t>
@@ -26564,6 +27994,11 @@
       <c r="T288">
         <v>0.3741657386773942</v>
       </c>
+      <c r="U288" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V288" t="inlineStr">
         <is>
           <t>N</t>
@@ -26655,6 +28090,11 @@
       <c r="T289">
         <v>20875.55269265591</v>
       </c>
+      <c r="U289" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V289" t="inlineStr">
         <is>
           <t>N</t>
@@ -26746,6 +28186,11 @@
       <c r="T290">
         <v>17258.50148353236</v>
       </c>
+      <c r="U290" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V290" t="inlineStr">
         <is>
           <t>N</t>
@@ -26837,6 +28282,11 @@
       <c r="T291">
         <v>3000.584792429022</v>
       </c>
+      <c r="U291" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V291" t="inlineStr">
         <is>
           <t>N</t>
@@ -26928,6 +28378,11 @@
       <c r="T292">
         <v>2983.34005224265</v>
       </c>
+      <c r="U292" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V292" t="inlineStr">
         <is>
           <t>N</t>
@@ -27019,6 +28474,11 @@
       <c r="T293">
         <v>2948.850571869903</v>
       </c>
+      <c r="U293" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V293" t="inlineStr">
         <is>
           <t>N</t>
@@ -27110,6 +28570,11 @@
       <c r="T294">
         <v>3353.104760350955</v>
       </c>
+      <c r="U294" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V294" t="inlineStr">
         <is>
           <t>N</t>
@@ -27201,6 +28666,11 @@
       <c r="T295">
         <v>1756.85344443144</v>
       </c>
+      <c r="U295" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V295" t="inlineStr">
         <is>
           <t>N</t>
@@ -27292,6 +28762,11 @@
       <c r="T296">
         <v>3203.169181636072</v>
       </c>
+      <c r="U296" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V296" t="inlineStr">
         <is>
           <t>N</t>
@@ -27383,6 +28858,11 @@
       <c r="T297">
         <v>2766.992952647332</v>
       </c>
+      <c r="U297" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V297" t="inlineStr">
         <is>
           <t>N</t>
@@ -27474,6 +28954,11 @@
       <c r="T298">
         <v>39.90645060638693</v>
       </c>
+      <c r="U298" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V298" t="inlineStr">
         <is>
           <t>N</t>
@@ -27565,6 +29050,11 @@
       <c r="T299">
         <v>7.811186003784205</v>
       </c>
+      <c r="U299" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V299" t="inlineStr">
         <is>
           <t>N</t>
@@ -27656,6 +29146,11 @@
       <c r="T300">
         <v>6.011398102176993</v>
       </c>
+      <c r="U300" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V300" t="inlineStr">
         <is>
           <t>N</t>
@@ -27747,6 +29242,11 @@
       <c r="T301">
         <v>5.492308908178522</v>
       </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V301" t="inlineStr">
         <is>
           <t>N</t>
@@ -27838,6 +29338,11 @@
       <c r="T302">
         <v>12.21752254521583</v>
       </c>
+      <c r="U302" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V302" t="inlineStr">
         <is>
           <t>N</t>
@@ -27929,6 +29434,11 @@
       <c r="T303">
         <v>9.380831519646859</v>
       </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V303" t="inlineStr">
         <is>
           <t>N</t>
@@ -28020,6 +29530,11 @@
       <c r="T304">
         <v>1.356202681860537</v>
       </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V304" t="inlineStr">
         <is>
           <t>N</t>
@@ -28111,6 +29626,11 @@
       <c r="T305">
         <v>167882.3620405836</v>
       </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V305" t="inlineStr">
         <is>
           <t>N</t>
@@ -28202,6 +29722,11 @@
       <c r="T306">
         <v>37181.99964657216</v>
       </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V306" t="inlineStr">
         <is>
           <t>N</t>
@@ -28293,6 +29818,11 @@
       <c r="T307">
         <v>23022.45944289777</v>
       </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V307" t="inlineStr">
         <is>
           <t>N</t>
@@ -28384,6 +29914,11 @@
       <c r="T308">
         <v>15218.23590293242</v>
       </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V308" t="inlineStr">
         <is>
           <t>N</t>
@@ -28475,6 +30010,11 @@
       <c r="T309">
         <v>6760.363572104022</v>
       </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V309" t="inlineStr">
         <is>
           <t>N</t>
@@ -28566,6 +30106,11 @@
       <c r="T310">
         <v>5462.956477975744</v>
       </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V310" t="inlineStr">
         <is>
           <t>N</t>
@@ -28657,6 +30202,11 @@
       <c r="T311">
         <v>3142.092614783429</v>
       </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V311" t="inlineStr">
         <is>
           <t>N</t>
@@ -28748,6 +30298,11 @@
       <c r="T312">
         <v>314.2092614783435</v>
       </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V312" t="inlineStr">
         <is>
           <t>N</t>
@@ -28839,6 +30394,11 @@
       <c r="T313">
         <v>74.59761259580677</v>
       </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V313" t="inlineStr">
         <is>
           <t>N</t>
@@ -28930,6 +30490,11 @@
       <c r="T314">
         <v>27.79126743765346</v>
       </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V314" t="inlineStr">
         <is>
           <t>N</t>
@@ -29021,6 +30586,11 @@
       <c r="T315">
         <v>0.06</v>
       </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V315" t="inlineStr">
         <is>
           <t>N</t>
@@ -29112,6 +30682,11 @@
       <c r="T316">
         <v>0.05</v>
       </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V316" t="inlineStr">
         <is>
           <t>N</t>
@@ -29203,6 +30778,11 @@
       <c r="T317">
         <v>1.131147540983607</v>
       </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V317" t="inlineStr">
         <is>
           <t>N</t>
@@ -29294,6 +30874,11 @@
       <c r="T318">
         <v>0.6885245901639344</v>
       </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V318" t="inlineStr">
         <is>
           <t>N</t>
@@ -29385,6 +30970,11 @@
       <c r="T319">
         <v>113.1724200857036</v>
       </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V319" t="inlineStr">
         <is>
           <t>N</t>
@@ -29476,6 +31066,11 @@
       <c r="T320">
         <v>98.5695271714194</v>
       </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V320" t="inlineStr">
         <is>
           <t>N</t>
@@ -29567,6 +31162,11 @@
       <c r="T321">
         <v>73.01446457142175</v>
       </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V321" t="inlineStr">
         <is>
           <t>N</t>
@@ -29658,6 +31258,11 @@
       <c r="T322">
         <v>40.15795551428196</v>
       </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V322" t="inlineStr">
         <is>
           <t>N</t>
@@ -29749,6 +31354,11 @@
       <c r="T323">
         <v>27.4</v>
       </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V323" t="inlineStr">
         <is>
           <t>N</t>
@@ -29840,6 +31450,11 @@
       <c r="T324">
         <v>0.8</v>
       </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V324" t="inlineStr">
         <is>
           <t>N</t>
@@ -29931,6 +31546,11 @@
       <c r="T325">
         <v>1</v>
       </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V325" t="inlineStr">
         <is>
           <t>N</t>
@@ -30022,6 +31642,11 @@
       <c r="T326">
         <v>19.6</v>
       </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V326" t="inlineStr">
         <is>
           <t>N</t>
@@ -30113,6 +31738,11 @@
       <c r="T327">
         <v>13.6</v>
       </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V327" t="inlineStr">
         <is>
           <t>N</t>
@@ -30204,6 +31834,11 @@
       <c r="T328">
         <v>265.1650429449543</v>
       </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V328" t="inlineStr">
         <is>
           <t>N</t>
@@ -30295,6 +31930,11 @@
       <c r="T329">
         <v>124.7835496211558</v>
       </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V329" t="inlineStr">
         <is>
           <t>N</t>
@@ -30386,6 +32026,11 @@
       <c r="T330">
         <v>296.3609303502447</v>
       </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V330" t="inlineStr">
         <is>
           <t>N</t>
@@ -30477,6 +32122,11 @@
       <c r="T331">
         <v>46.79383110793366</v>
       </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V331" t="inlineStr">
         <is>
           <t>N</t>
@@ -30568,6 +32218,11 @@
       <c r="T332">
         <v>1.531220462853125</v>
       </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V332" t="inlineStr">
         <is>
           <t>N</t>
@@ -30659,6 +32314,11 @@
       <c r="T333">
         <v>1.020813641902079</v>
       </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V333" t="inlineStr">
         <is>
           <t>N</t>
@@ -30750,6 +32410,11 @@
       <c r="T334">
         <v>7.280063678085432</v>
       </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V334" t="inlineStr">
         <is>
           <t>N</t>
@@ -30841,6 +32506,11 @@
       <c r="T335">
         <v>2.912025471234207</v>
       </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V335" t="inlineStr">
         <is>
           <t>N</t>
@@ -30932,6 +32602,11 @@
       <c r="T336">
         <v>19.56157309812763</v>
       </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V336" t="inlineStr">
         <is>
           <t>N</t>
@@ -31023,6 +32698,11 @@
       <c r="T337">
         <v>17.50246014043</v>
       </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V337" t="inlineStr">
         <is>
           <t>N</t>
@@ -31114,6 +32794,11 @@
       <c r="T338">
         <v>11.7239637872573</v>
       </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V338" t="inlineStr">
         <is>
           <t>N</t>
@@ -31205,6 +32890,11 @@
       <c r="T339">
         <v>12.27254113628535</v>
       </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V339" t="inlineStr">
         <is>
           <t>N</t>
@@ -31296,6 +32986,11 @@
       <c r="T340">
         <v>8.826238612489824</v>
       </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V340" t="inlineStr">
         <is>
           <t>N</t>
@@ -31387,6 +33082,11 @@
       <c r="T341">
         <v>8.411704972138661</v>
       </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V341" t="inlineStr">
         <is>
           <t>N</t>
@@ -31478,6 +33178,11 @@
       <c r="T342">
         <v>6.029051531177305</v>
       </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V342" t="inlineStr">
         <is>
           <t>N</t>
@@ -31569,6 +33274,11 @@
       <c r="T343">
         <v>6.460978067495081</v>
       </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V343" t="inlineStr">
         <is>
           <t>N</t>
@@ -31660,6 +33370,11 @@
       <c r="T344">
         <v>4.096171325594126</v>
       </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V344" t="inlineStr">
         <is>
           <t>N</t>
@@ -31751,6 +33466,11 @@
       <c r="T345">
         <v>0.3535533905932738</v>
       </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V345" t="inlineStr">
         <is>
           <t>N</t>
@@ -31842,6 +33562,11 @@
       <c r="T346">
         <v>7.448433839852957</v>
       </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V346" t="inlineStr">
         <is>
           <t>N</t>
@@ -31933,6 +33658,11 @@
       <c r="T347">
         <v>55.10046857142928</v>
       </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V347" t="inlineStr">
         <is>
           <t>N</t>
@@ -32024,6 +33754,11 @@
       <c r="T348">
         <v>61.88470933451372</v>
       </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V348" t="inlineStr">
         <is>
           <t>N</t>
@@ -32115,6 +33850,11 @@
       <c r="T349">
         <v>23.56618032419475</v>
       </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V349" t="inlineStr">
         <is>
           <t>N</t>
@@ -32206,6 +33946,11 @@
       <c r="T350">
         <v>40.82215664758073</v>
       </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V350" t="inlineStr">
         <is>
           <t>N</t>
@@ -32297,6 +34042,11 @@
       <c r="T351">
         <v>29.59574402707472</v>
       </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V351" t="inlineStr">
         <is>
           <t>N</t>
@@ -32388,6 +34138,11 @@
       <c r="T352">
         <v>37.66874562768345</v>
       </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V352" t="inlineStr">
         <is>
           <t>N</t>
@@ -32479,6 +34234,11 @@
       <c r="T353">
         <v>86.42407439435284</v>
       </c>
+      <c r="U353" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V353" t="inlineStr">
         <is>
           <t>N</t>
@@ -32570,6 +34330,11 @@
       <c r="T354">
         <v>23.25819049979329</v>
       </c>
+      <c r="U354" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V354" t="inlineStr">
         <is>
           <t>N</t>
@@ -32661,6 +34426,11 @@
       <c r="T355">
         <v>9.51428590928588</v>
       </c>
+      <c r="U355" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V355" t="inlineStr">
         <is>
           <t>N</t>
@@ -32752,6 +34522,11 @@
       <c r="T356">
         <v>24.04163056034261</v>
       </c>
+      <c r="U356" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V356" t="inlineStr">
         <is>
           <t>N</t>
@@ -32843,6 +34618,11 @@
       <c r="T357">
         <v>10.60660171779821</v>
       </c>
+      <c r="U357" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V357" t="inlineStr">
         <is>
           <t>N</t>
@@ -32934,6 +34714,11 @@
       <c r="T358">
         <v>19.0750435164757</v>
       </c>
+      <c r="U358" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V358" t="inlineStr">
         <is>
           <t>N</t>
@@ -33025,6 +34810,11 @@
       <c r="T359">
         <v>7.815387512984415</v>
       </c>
+      <c r="U359" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V359" t="inlineStr">
         <is>
           <t>N</t>
@@ -33116,6 +34906,11 @@
       <c r="T360">
         <v>2.222971595585438</v>
       </c>
+      <c r="U360" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V360" t="inlineStr">
         <is>
           <t>N</t>
@@ -33207,6 +35002,11 @@
       <c r="T361">
         <v>43.00623210652149</v>
       </c>
+      <c r="U361" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V361" t="inlineStr">
         <is>
           <t>N</t>
@@ -33298,6 +35098,11 @@
       <c r="T362">
         <v>29.06372997397271</v>
       </c>
+      <c r="U362" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V362" t="inlineStr">
         <is>
           <t>N</t>
@@ -33389,6 +35194,11 @@
       <c r="T363">
         <v>49.98948389411517</v>
       </c>
+      <c r="U363" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V363" t="inlineStr">
         <is>
           <t>N</t>
@@ -33480,6 +35290,11 @@
       <c r="T364">
         <v>35.49492921531187</v>
       </c>
+      <c r="U364" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V364" t="inlineStr">
         <is>
           <t>N</t>
@@ -33571,6 +35386,11 @@
       <c r="T365">
         <v>45.79519625462915</v>
       </c>
+      <c r="U365" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V365" t="inlineStr">
         <is>
           <t>N</t>
@@ -33662,6 +35482,11 @@
       <c r="T366">
         <v>33.80295845040786</v>
       </c>
+      <c r="U366" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V366" t="inlineStr">
         <is>
           <t>N</t>
@@ -33753,6 +35578,11 @@
       <c r="T367">
         <v>17.4</v>
       </c>
+      <c r="U367" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V367" t="inlineStr">
         <is>
           <t>N</t>
@@ -33844,6 +35674,11 @@
       <c r="T368">
         <v>14.17233220045311</v>
       </c>
+      <c r="U368" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V368" t="inlineStr">
         <is>
           <t>N</t>
@@ -33935,6 +35770,11 @@
       <c r="T369">
         <v>24.59378376744823</v>
       </c>
+      <c r="U369" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V369" t="inlineStr">
         <is>
           <t>N</t>
@@ -34026,6 +35866,11 @@
       <c r="T370">
         <v>19.68479616353698</v>
       </c>
+      <c r="U370" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V370" t="inlineStr">
         <is>
           <t>N</t>
@@ -34117,6 +35962,11 @@
       <c r="T371">
         <v>9.54214336509361</v>
       </c>
+      <c r="U371" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V371" t="inlineStr">
         <is>
           <t>N</t>
@@ -34208,6 +36058,11 @@
       <c r="T372">
         <v>7.739670535623593</v>
       </c>
+      <c r="U372" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V372" t="inlineStr">
         <is>
           <t>N</t>
@@ -34299,6 +36154,11 @@
       <c r="T373">
         <v>7.670032594454863</v>
       </c>
+      <c r="U373" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V373" t="inlineStr">
         <is>
           <t>N</t>
@@ -34390,6 +36250,11 @@
       <c r="T374">
         <v>4.797332592180784</v>
       </c>
+      <c r="U374" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V374" t="inlineStr">
         <is>
           <t>N</t>
@@ -34481,6 +36346,11 @@
       <c r="T375">
         <v>5.138209804980719</v>
       </c>
+      <c r="U375" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V375" t="inlineStr">
         <is>
           <t>N</t>
@@ -34572,6 +36442,11 @@
       <c r="T376">
         <v>13.20687321056729</v>
       </c>
+      <c r="U376" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V376" t="inlineStr">
         <is>
           <t>N</t>
@@ -34663,6 +36538,11 @@
       <c r="T377">
         <v>6.738991022400906</v>
       </c>
+      <c r="U377" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V377" t="inlineStr">
         <is>
           <t>N</t>
@@ -34754,6 +36634,11 @@
       <c r="T378">
         <v>4.105362346979862</v>
       </c>
+      <c r="U378" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V378" t="inlineStr">
         <is>
           <t>N</t>
@@ -34845,6 +36730,11 @@
       <c r="T379">
         <v>3.446955178124601</v>
       </c>
+      <c r="U379" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V379" t="inlineStr">
         <is>
           <t>N</t>
@@ -34936,6 +36826,11 @@
       <c r="T380">
         <v>2.285060174262376</v>
       </c>
+      <c r="U380" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V380" t="inlineStr">
         <is>
           <t>N</t>
@@ -35027,6 +36922,11 @@
       <c r="T381">
         <v>0.9682458365518543</v>
       </c>
+      <c r="U381" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V381" t="inlineStr">
         <is>
           <t>N</t>
@@ -35118,6 +37018,11 @@
       <c r="T382">
         <v>24.21</v>
       </c>
+      <c r="U382" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V382" t="inlineStr">
         <is>
           <t>N</t>
@@ -35209,6 +37114,11 @@
       <c r="T383">
         <v>22.49376802583329</v>
       </c>
+      <c r="U383" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V383" t="inlineStr">
         <is>
           <t>N</t>
@@ -35300,6 +37210,11 @@
       <c r="T384">
         <v>22.60583995342796</v>
       </c>
+      <c r="U384" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V384" t="inlineStr">
         <is>
           <t>N</t>
@@ -35391,6 +37306,11 @@
       <c r="T385">
         <v>23.59321936489381</v>
       </c>
+      <c r="U385" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V385" t="inlineStr">
         <is>
           <t>N</t>
@@ -35482,6 +37402,11 @@
       <c r="T386">
         <v>33.80295845040786</v>
       </c>
+      <c r="U386" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V386" t="inlineStr">
         <is>
           <t>N</t>
@@ -35573,6 +37498,11 @@
       <c r="T387">
         <v>28.00457998256714</v>
       </c>
+      <c r="U387" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V387" t="inlineStr">
         <is>
           <t>N</t>
@@ -35664,6 +37594,11 @@
       <c r="T388">
         <v>11.67133240037315</v>
       </c>
+      <c r="U388" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V388" t="inlineStr">
         <is>
           <t>N</t>
@@ -35755,6 +37690,11 @@
       <c r="T389">
         <v>17.67815601243523</v>
       </c>
+      <c r="U389" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V389" t="inlineStr">
         <is>
           <t>N</t>
@@ -35846,6 +37786,11 @@
       <c r="T390">
         <v>11.4</v>
       </c>
+      <c r="U390" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V390" t="inlineStr">
         <is>
           <t>N</t>
@@ -35937,6 +37882,11 @@
       <c r="T391">
         <v>9.368649849364635</v>
       </c>
+      <c r="U391" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V391" t="inlineStr">
         <is>
           <t>N</t>
@@ -36028,6 +37978,11 @@
       <c r="T392">
         <v>13.60566793656232</v>
       </c>
+      <c r="U392" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V392" t="inlineStr">
         <is>
           <t>N</t>
@@ -36119,6 +38074,11 @@
       <c r="T393">
         <v>8.403070867248474</v>
       </c>
+      <c r="U393" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V393" t="inlineStr">
         <is>
           <t>N</t>
@@ -36210,6 +38170,11 @@
       <c r="T394">
         <v>9.894498471372867</v>
       </c>
+      <c r="U394" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V394" t="inlineStr">
         <is>
           <t>N</t>
@@ -36301,6 +38266,11 @@
       <c r="T395">
         <v>10.1403648849536</v>
       </c>
+      <c r="U395" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V395" t="inlineStr">
         <is>
           <t>N</t>
@@ -36392,6 +38362,11 @@
       <c r="T396">
         <v>9.148087231765993</v>
       </c>
+      <c r="U396" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V396" t="inlineStr">
         <is>
           <t>N</t>
@@ -36483,6 +38458,11 @@
       <c r="T397">
         <v>7.351190379795643</v>
       </c>
+      <c r="U397" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V397" t="inlineStr">
         <is>
           <t>N</t>
@@ -36574,6 +38554,11 @@
       <c r="T398">
         <v>10.06864988558353</v>
       </c>
+      <c r="U398" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V398" t="inlineStr">
         <is>
           <t>N</t>
@@ -36665,6 +38650,11 @@
       <c r="T399">
         <v>3.112128146453092</v>
       </c>
+      <c r="U399" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V399" t="inlineStr">
         <is>
           <t>N</t>
@@ -36756,6 +38746,11 @@
       <c r="T400">
         <v>3.441099864697506</v>
       </c>
+      <c r="U400" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V400" t="inlineStr">
         <is>
           <t>N</t>
@@ -36847,6 +38842,11 @@
       <c r="T401">
         <v>3.441099864697503</v>
       </c>
+      <c r="U401" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V401" t="inlineStr">
         <is>
           <t>N</t>
@@ -36938,6 +38938,11 @@
       <c r="T402">
         <v>2.402277264034108</v>
       </c>
+      <c r="U402" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V402" t="inlineStr">
         <is>
           <t>N</t>
@@ -37029,6 +39034,11 @@
       <c r="T403">
         <v>1.882865963702409</v>
       </c>
+      <c r="U403" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V403" t="inlineStr">
         <is>
           <t>N</t>
@@ -37120,6 +39130,11 @@
       <c r="T404">
         <v>22.13460703067411</v>
       </c>
+      <c r="U404" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V404" t="inlineStr">
         <is>
           <t>N</t>
@@ -37211,6 +39226,11 @@
       <c r="T405">
         <v>18.07692307692308</v>
       </c>
+      <c r="U405" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V405" t="inlineStr">
         <is>
           <t>N</t>
@@ -37302,6 +39322,11 @@
       <c r="T406">
         <v>16.24769254409015</v>
       </c>
+      <c r="U406" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V406" t="inlineStr">
         <is>
           <t>N</t>
@@ -37393,6 +39418,11 @@
       <c r="T407">
         <v>12.48349586833326</v>
       </c>
+      <c r="U407" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V407" t="inlineStr">
         <is>
           <t>N</t>
@@ -37484,6 +39514,11 @@
       <c r="T408">
         <v>17.54365966098217</v>
       </c>
+      <c r="U408" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V408" t="inlineStr">
         <is>
           <t>N</t>
@@ -37575,6 +39610,11 @@
       <c r="T409">
         <v>15.16412115667439</v>
       </c>
+      <c r="U409" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V409" t="inlineStr">
         <is>
           <t>N</t>
@@ -37666,6 +39706,11 @@
       <c r="T410">
         <v>14.76923076923078</v>
       </c>
+      <c r="U410" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V410" t="inlineStr">
         <is>
           <t>N</t>
@@ -37757,6 +39802,11 @@
       <c r="T411">
         <v>15.81043359333861</v>
       </c>
+      <c r="U411" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V411" t="inlineStr">
         <is>
           <t>N</t>
@@ -37845,6 +39895,11 @@
       <c r="T412">
         <v>13.92</v>
       </c>
+      <c r="U412" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V412" t="inlineStr">
         <is>
           <t>N</t>
@@ -37933,6 +39988,11 @@
       <c r="T413">
         <v>2.74</v>
       </c>
+      <c r="U413" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V413" t="inlineStr">
         <is>
           <t>N</t>
@@ -38021,6 +40081,11 @@
       <c r="T414">
         <v>3.34</v>
       </c>
+      <c r="U414" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V414" t="inlineStr">
         <is>
           <t>N</t>
@@ -38109,6 +40174,11 @@
       <c r="T415">
         <v>8.34</v>
       </c>
+      <c r="U415" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V415" t="inlineStr">
         <is>
           <t>N</t>
@@ -38197,6 +40267,11 @@
       <c r="T416">
         <v>5.17</v>
       </c>
+      <c r="U416" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V416" t="inlineStr">
         <is>
           <t>N</t>
@@ -38285,6 +40360,11 @@
       <c r="T417">
         <v>4.38</v>
       </c>
+      <c r="U417" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V417" t="inlineStr">
         <is>
           <t>N</t>
@@ -38376,6 +40456,11 @@
       <c r="T418">
         <v>93.00953001415108</v>
       </c>
+      <c r="U418" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V418" t="inlineStr">
         <is>
           <t>N</t>
@@ -38467,6 +40552,11 @@
       <c r="T419">
         <v>72.19674970859572</v>
       </c>
+      <c r="U419" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V419" t="inlineStr">
         <is>
           <t>N</t>
@@ -38558,6 +40648,11 @@
       <c r="T420">
         <v>30.78706407609175</v>
       </c>
+      <c r="U420" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V420" t="inlineStr">
         <is>
           <t>N</t>
@@ -38649,6 +40744,11 @@
       <c r="T421">
         <v>28.44283819933272</v>
       </c>
+      <c r="U421" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V421" t="inlineStr">
         <is>
           <t>N</t>
@@ -38740,6 +40840,11 @@
       <c r="T422">
         <v>21.0974240738912</v>
       </c>
+      <c r="U422" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V422" t="inlineStr">
         <is>
           <t>N</t>
@@ -38831,6 +40936,11 @@
       <c r="T423">
         <v>16.72744910127188</v>
       </c>
+      <c r="U423" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V423" t="inlineStr">
         <is>
           <t>N</t>
@@ -38922,6 +41032,11 @@
       <c r="T424">
         <v>2.352955596805567</v>
       </c>
+      <c r="U424" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V424" t="inlineStr">
         <is>
           <t>N</t>
@@ -39013,6 +41128,11 @@
       <c r="T425">
         <v>1.948460259682722</v>
       </c>
+      <c r="U425" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V425" t="inlineStr">
         <is>
           <t>N</t>
@@ -39104,6 +41224,11 @@
       <c r="T426">
         <v>1.343004234406614</v>
       </c>
+      <c r="U426" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V426" t="inlineStr">
         <is>
           <t>N</t>
@@ -39195,6 +41320,11 @@
       <c r="T427">
         <v>1.046398148189002</v>
       </c>
+      <c r="U427" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V427" t="inlineStr">
         <is>
           <t>N</t>
@@ -39286,6 +41416,11 @@
       <c r="T428">
         <v>0.8852601634985549</v>
       </c>
+      <c r="U428" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V428" t="inlineStr">
         <is>
           <t>N</t>
@@ -39377,6 +41512,11 @@
       <c r="T429">
         <v>0.6236802539952403</v>
       </c>
+      <c r="U429" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V429" t="inlineStr">
         <is>
           <t>N</t>
@@ -39468,6 +41608,11 @@
       <c r="T430">
         <v>0.578950040466624</v>
       </c>
+      <c r="U430" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V430" t="inlineStr">
         <is>
           <t>N</t>
@@ -39559,6 +41704,11 @@
       <c r="T431">
         <v>0.5969269779452857</v>
       </c>
+      <c r="U431" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V431" t="inlineStr">
         <is>
           <t>N</t>
@@ -39650,6 +41800,11 @@
       <c r="T432">
         <v>0.5127280748000055</v>
       </c>
+      <c r="U432" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V432" t="inlineStr">
         <is>
           <t>N</t>
@@ -39741,6 +41896,11 @@
       <c r="T433">
         <v>0.4039819737339019</v>
       </c>
+      <c r="U433" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V433" t="inlineStr">
         <is>
           <t>N</t>
@@ -39832,6 +41992,11 @@
       <c r="T434">
         <v>0.2807251130654138</v>
       </c>
+      <c r="U434" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V434" t="inlineStr">
         <is>
           <t>N</t>
@@ -39923,6 +42088,11 @@
       <c r="T435">
         <v>0.2616612050051252</v>
       </c>
+      <c r="U435" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V435" t="inlineStr">
         <is>
           <t>N</t>
@@ -40014,6 +42184,11 @@
       <c r="T436">
         <v>378.4610130832338</v>
       </c>
+      <c r="U436" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V436" t="inlineStr">
         <is>
           <t>N</t>
@@ -40105,6 +42280,11 @@
       <c r="T437">
         <v>242.6820982895735</v>
       </c>
+      <c r="U437" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V437" t="inlineStr">
         <is>
           <t>N</t>
@@ -40196,6 +42376,11 @@
       <c r="T438">
         <v>203.41038299088</v>
       </c>
+      <c r="U438" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V438" t="inlineStr">
         <is>
           <t>N</t>
@@ -40287,6 +42472,11 @@
       <c r="T439">
         <v>200.4375380680614</v>
       </c>
+      <c r="U439" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V439" t="inlineStr">
         <is>
           <t>N</t>
@@ -40378,6 +42568,11 @@
       <c r="T440">
         <v>168.6399394333555</v>
       </c>
+      <c r="U440" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V440" t="inlineStr">
         <is>
           <t>N</t>
@@ -40469,6 +42664,11 @@
       <c r="T441">
         <v>75.74255331909276</v>
       </c>
+      <c r="U441" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V441" t="inlineStr">
         <is>
           <t>N</t>
@@ -40560,6 +42760,11 @@
       <c r="T442">
         <v>75.69679406808837</v>
       </c>
+      <c r="U442" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V442" t="inlineStr">
         <is>
           <t>N</t>
@@ -40651,6 +42856,11 @@
       <c r="T443">
         <v>52.10595678784041</v>
       </c>
+      <c r="U443" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V443" t="inlineStr">
         <is>
           <t>N</t>
@@ -40742,6 +42952,11 @@
       <c r="T444">
         <v>50.25738240392701</v>
       </c>
+      <c r="U444" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V444" t="inlineStr">
         <is>
           <t>N</t>
@@ -40833,6 +43048,11 @@
       <c r="T445">
         <v>36.71687316189429</v>
       </c>
+      <c r="U445" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V445" t="inlineStr">
         <is>
           <t>N</t>
@@ -40924,6 +43144,11 @@
       <c r="T446">
         <v>52.7</v>
       </c>
+      <c r="U446" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V446" t="inlineStr">
         <is>
           <t>N</t>
@@ -41015,6 +43240,11 @@
       <c r="T447">
         <v>39.3</v>
       </c>
+      <c r="U447" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V447" t="inlineStr">
         <is>
           <t>N</t>
@@ -41106,6 +43336,11 @@
       <c r="T448">
         <v>20.6</v>
       </c>
+      <c r="U448" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V448" t="inlineStr">
         <is>
           <t>N</t>
@@ -41197,6 +43432,11 @@
       <c r="T449">
         <v>171.7</v>
       </c>
+      <c r="U449" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V449" t="inlineStr">
         <is>
           <t>N</t>
@@ -41288,6 +43528,11 @@
       <c r="T450">
         <v>7.2</v>
       </c>
+      <c r="U450" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V450" t="inlineStr">
         <is>
           <t>N</t>
@@ -41379,6 +43624,11 @@
       <c r="T451">
         <v>12.4</v>
       </c>
+      <c r="U451" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V451" t="inlineStr">
         <is>
           <t>N</t>
@@ -41470,6 +43720,11 @@
       <c r="T452">
         <v>1.1</v>
       </c>
+      <c r="U452" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V452" t="inlineStr">
         <is>
           <t>N</t>
@@ -41561,6 +43816,11 @@
       <c r="T453">
         <v>4.3</v>
       </c>
+      <c r="U453" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V453" t="inlineStr">
         <is>
           <t>N</t>
@@ -41652,6 +43912,11 @@
       <c r="T454">
         <v>48.59894298028645</v>
       </c>
+      <c r="U454" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V454" t="inlineStr">
         <is>
           <t>N</t>
@@ -41743,6 +44008,11 @@
       <c r="T455">
         <v>19.69142711055781</v>
       </c>
+      <c r="U455" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V455" t="inlineStr">
         <is>
           <t>N</t>
@@ -41834,6 +44104,11 @@
       <c r="T456">
         <v>53.5</v>
       </c>
+      <c r="U456" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V456" t="inlineStr">
         <is>
           <t>N</t>
@@ -41925,6 +44200,11 @@
       <c r="T457">
         <v>52</v>
       </c>
+      <c r="U457" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V457" t="inlineStr">
         <is>
           <t>N</t>
@@ -42016,6 +44296,11 @@
       <c r="T458">
         <v>20</v>
       </c>
+      <c r="U458" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V458" t="inlineStr">
         <is>
           <t>N</t>
@@ -42107,6 +44392,11 @@
       <c r="T459">
         <v>22.43859155121744</v>
       </c>
+      <c r="U459" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V459" t="inlineStr">
         <is>
           <t>N</t>
@@ -42198,6 +44488,11 @@
       <c r="T460">
         <v>15.42653169146194</v>
       </c>
+      <c r="U460" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V460" t="inlineStr">
         <is>
           <t>N</t>
@@ -42289,6 +44584,11 @@
       <c r="T461">
         <v>14.02411971951093</v>
       </c>
+      <c r="U461" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V461" t="inlineStr">
         <is>
           <t>N</t>
@@ -42380,6 +44680,11 @@
       <c r="T462">
         <v>11.21929577560878</v>
       </c>
+      <c r="U462" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V462" t="inlineStr">
         <is>
           <t>N</t>
@@ -42471,6 +44776,11 @@
       <c r="T463">
         <v>2.804823943902148</v>
       </c>
+      <c r="U463" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V463" t="inlineStr">
         <is>
           <t>N</t>
@@ -42562,6 +44872,11 @@
       <c r="T464">
         <v>2.420859747005643</v>
       </c>
+      <c r="U464" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V464" t="inlineStr">
         <is>
           <t>N</t>
@@ -42653,6 +44968,11 @@
       <c r="T465">
         <v>1.613906498003759</v>
       </c>
+      <c r="U465" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V465" t="inlineStr">
         <is>
           <t>N</t>
@@ -42744,6 +45064,11 @@
       <c r="T466">
         <v>0.7695851410053323</v>
       </c>
+      <c r="U466" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V466" t="inlineStr">
         <is>
           <t>N</t>
@@ -42835,6 +45160,11 @@
       <c r="T467">
         <v>0.3362305204174492</v>
       </c>
+      <c r="U467" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V467" t="inlineStr">
         <is>
           <t>N</t>
@@ -42926,6 +45256,11 @@
       <c r="T468">
         <v>0.3420378404468156</v>
       </c>
+      <c r="U468" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V468" t="inlineStr">
         <is>
           <t>N</t>
@@ -43017,6 +45352,11 @@
       <c r="T469">
         <v>40.3441355565232</v>
       </c>
+      <c r="U469" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V469" t="inlineStr">
         <is>
           <t>N</t>
@@ -43108,6 +45448,11 @@
       <c r="T470">
         <v>25.58408596267332</v>
       </c>
+      <c r="U470" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V470" t="inlineStr">
         <is>
           <t>N</t>
@@ -43199,6 +45544,11 @@
       <c r="T471">
         <v>8.856029756309974</v>
       </c>
+      <c r="U471" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V471" t="inlineStr">
         <is>
           <t>N</t>
@@ -43290,6 +45640,11 @@
       <c r="T472">
         <v>7.211114663333659</v>
       </c>
+      <c r="U472" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V472" t="inlineStr">
         <is>
           <t>N</t>
@@ -43381,6 +45736,11 @@
       <c r="T473">
         <v>4.120636950476372</v>
       </c>
+      <c r="U473" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V473" t="inlineStr">
         <is>
           <t>N</t>
@@ -43472,6 +45832,11 @@
       <c r="T474">
         <v>0.066332495807108</v>
       </c>
+      <c r="U474" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V474" t="inlineStr">
         <is>
           <t>N</t>
@@ -43563,6 +45928,11 @@
       <c r="T475">
         <v>0.33166247903554</v>
       </c>
+      <c r="U475" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V475" t="inlineStr">
         <is>
           <t>N</t>
@@ -43654,6 +46024,11 @@
       <c r="T476">
         <v>0.24</v>
       </c>
+      <c r="U476" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V476" t="inlineStr">
         <is>
           <t>N</t>
@@ -43745,6 +46120,11 @@
       <c r="T477">
         <v>4.199999999999999</v>
       </c>
+      <c r="U477" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V477" t="inlineStr">
         <is>
           <t>N</t>
@@ -43836,6 +46216,11 @@
       <c r="T478">
         <v>0.894427190999916</v>
       </c>
+      <c r="U478" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V478" t="inlineStr">
         <is>
           <t>N</t>
@@ -43927,6 +46312,11 @@
       <c r="T479">
         <v>0.894427190999916</v>
       </c>
+      <c r="U479" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V479" t="inlineStr">
         <is>
           <t>N</t>
@@ -44018,6 +46408,11 @@
       <c r="T480">
         <v>0.894427190999916</v>
       </c>
+      <c r="U480" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V480" t="inlineStr">
         <is>
           <t>N</t>
@@ -44109,6 +46504,11 @@
       <c r="T481">
         <v>0.894427190999916</v>
       </c>
+      <c r="U481" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V481" t="inlineStr">
         <is>
           <t>N</t>
@@ -44200,6 +46600,11 @@
       <c r="T482">
         <v>0.894427190999916</v>
       </c>
+      <c r="U482" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V482" t="inlineStr">
         <is>
           <t>N</t>
@@ -44291,6 +46696,11 @@
       <c r="T483">
         <v>207</v>
       </c>
+      <c r="U483" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V483" t="inlineStr">
         <is>
           <t>N</t>
@@ -44382,6 +46792,11 @@
       <c r="T484">
         <v>15.58813651467038</v>
       </c>
+      <c r="U484" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V484" t="inlineStr">
         <is>
           <t>N</t>
@@ -44473,6 +46888,11 @@
       <c r="T485">
         <v>4.47213595499958</v>
       </c>
+      <c r="U485" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V485" t="inlineStr">
         <is>
           <t>N</t>
@@ -44564,6 +46984,11 @@
       <c r="T486">
         <v>4.47213595499958</v>
       </c>
+      <c r="U486" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V486" t="inlineStr">
         <is>
           <t>N</t>
@@ -44655,6 +47080,11 @@
       <c r="T487">
         <v>4.47213595499958</v>
       </c>
+      <c r="U487" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V487" t="inlineStr">
         <is>
           <t>N</t>
@@ -44746,6 +47176,11 @@
       <c r="T488">
         <v>4.47213595499958</v>
       </c>
+      <c r="U488" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V488" t="inlineStr">
         <is>
           <t>N</t>
@@ -44837,6 +47272,11 @@
       <c r="T489">
         <v>4.47213595499958</v>
       </c>
+      <c r="U489" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V489" t="inlineStr">
         <is>
           <t>N</t>
@@ -44928,6 +47368,11 @@
       <c r="T490">
         <v>4.024922359499622</v>
       </c>
+      <c r="U490" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V490" t="inlineStr">
         <is>
           <t>N</t>
@@ -45019,6 +47464,11 @@
       <c r="T491">
         <v>4.024922359499622</v>
       </c>
+      <c r="U491" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V491" t="inlineStr">
         <is>
           <t>N</t>
@@ -45110,6 +47560,11 @@
       <c r="T492">
         <v>4.024922359499622</v>
       </c>
+      <c r="U492" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V492" t="inlineStr">
         <is>
           <t>N</t>
@@ -45201,6 +47656,11 @@
       <c r="T493">
         <v>4.024922359499622</v>
       </c>
+      <c r="U493" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V493" t="inlineStr">
         <is>
           <t>N</t>
@@ -45292,6 +47752,11 @@
       <c r="T494">
         <v>4.024922359499622</v>
       </c>
+      <c r="U494" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V494" t="inlineStr">
         <is>
           <t>N</t>
@@ -45380,6 +47845,11 @@
       <c r="T495">
         <v>0.6618378066008526</v>
       </c>
+      <c r="U495" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V495" t="inlineStr">
         <is>
           <t>N</t>
@@ -45468,6 +47938,11 @@
       <c r="T496">
         <v>0.3328468227498289</v>
       </c>
+      <c r="U496" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V496" t="inlineStr">
         <is>
           <t>N</t>
@@ -45559,6 +48034,11 @@
       <c r="T497">
         <v>15.80645161290323</v>
       </c>
+      <c r="U497" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V497" t="inlineStr">
         <is>
           <t>N</t>
@@ -45650,6 +48130,11 @@
       <c r="T498">
         <v>14.67741935483872</v>
       </c>
+      <c r="U498" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V498" t="inlineStr">
         <is>
           <t>N</t>
@@ -45741,6 +48226,11 @@
       <c r="T499">
         <v>10.72580645161287</v>
       </c>
+      <c r="U499" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V499" t="inlineStr">
         <is>
           <t>N</t>
@@ -45832,6 +48322,11 @@
       <c r="T500">
         <v>6.098455598455644</v>
       </c>
+      <c r="U500" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V500" t="inlineStr">
         <is>
           <t>N</t>
@@ -45923,6 +48418,11 @@
       <c r="T501">
         <v>3.388030888030898</v>
       </c>
+      <c r="U501" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V501" t="inlineStr">
         <is>
           <t>N</t>
@@ -46014,6 +48514,11 @@
       <c r="T502">
         <v>1.581081081081066</v>
       </c>
+      <c r="U502" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V502" t="inlineStr">
         <is>
           <t>N</t>
@@ -46105,6 +48610,11 @@
       <c r="T503">
         <v>17.93103448275861</v>
       </c>
+      <c r="U503" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V503" t="inlineStr">
         <is>
           <t>N</t>
@@ -46196,6 +48706,11 @@
       <c r="T504">
         <v>15.17241379310343</v>
       </c>
+      <c r="U504" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V504" t="inlineStr">
         <is>
           <t>N</t>
@@ -46287,6 +48802,11 @@
       <c r="T505">
         <v>14.48275862068965</v>
       </c>
+      <c r="U505" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V505" t="inlineStr">
         <is>
           <t>N</t>
@@ -46378,6 +48898,11 @@
       <c r="T506">
         <v>13.79310344827584</v>
       </c>
+      <c r="U506" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V506" t="inlineStr">
         <is>
           <t>N</t>
@@ -46469,6 +48994,11 @@
       <c r="T507">
         <v>13.10344827586209</v>
       </c>
+      <c r="U507" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V507" t="inlineStr">
         <is>
           <t>N</t>
@@ -46560,6 +49090,11 @@
       <c r="T508">
         <v>12.17391304347825</v>
       </c>
+      <c r="U508" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V508" t="inlineStr">
         <is>
           <t>N</t>
@@ -46651,6 +49186,11 @@
       <c r="T509">
         <v>11.66666666666666</v>
       </c>
+      <c r="U509" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V509" t="inlineStr">
         <is>
           <t>N</t>
@@ -46742,6 +49282,11 @@
       <c r="T510">
         <v>10.34482758620689</v>
       </c>
+      <c r="U510" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V510" t="inlineStr">
         <is>
           <t>N</t>
@@ -46833,6 +49378,11 @@
       <c r="T511">
         <v>8.115942028985501</v>
       </c>
+      <c r="U511" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V511" t="inlineStr">
         <is>
           <t>N</t>
@@ -46924,6 +49474,11 @@
       <c r="T512">
         <v>118.7739463601531</v>
       </c>
+      <c r="U512" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V512" t="inlineStr">
         <is>
           <t>N</t>
@@ -47015,6 +49570,11 @@
       <c r="T513">
         <v>17.24137931034488</v>
       </c>
+      <c r="U513" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V513" t="inlineStr">
         <is>
           <t>N</t>
@@ -47106,6 +49666,11 @@
       <c r="T514">
         <v>13.40996168582387</v>
       </c>
+      <c r="U514" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V514" t="inlineStr">
         <is>
           <t>N</t>
@@ -47197,6 +49762,11 @@
       <c r="T515">
         <v>9.375</v>
       </c>
+      <c r="U515" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V515" t="inlineStr">
         <is>
           <t>N</t>
@@ -47288,6 +49858,11 @@
       <c r="T516">
         <v>4.687499999999944</v>
       </c>
+      <c r="U516" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V516" t="inlineStr">
         <is>
           <t>N</t>
@@ -47379,6 +49954,11 @@
       <c r="T517">
         <v>3.831417624521122</v>
       </c>
+      <c r="U517" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V517" t="inlineStr">
         <is>
           <t>N</t>
@@ -47470,6 +50050,11 @@
       <c r="T518">
         <v>3.515625</v>
       </c>
+      <c r="U518" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V518" t="inlineStr">
         <is>
           <t>N</t>
@@ -47561,6 +50146,11 @@
       <c r="T519">
         <v>1.915708812260505</v>
       </c>
+      <c r="U519" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V519" t="inlineStr">
         <is>
           <t>N</t>
@@ -47652,6 +50242,11 @@
       <c r="T520">
         <v>354.2350914294065</v>
       </c>
+      <c r="U520" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V520" t="inlineStr">
         <is>
           <t>N</t>
@@ -47740,6 +50335,11 @@
       <c r="T521">
         <v>205.9751679234691</v>
       </c>
+      <c r="U521" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V521" t="inlineStr">
         <is>
           <t>N</t>
@@ -47828,6 +50428,11 @@
       <c r="T522">
         <v>58.98263300231326</v>
       </c>
+      <c r="U522" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V522" t="inlineStr">
         <is>
           <t>N</t>
@@ -47916,6 +50521,11 @@
       <c r="T523">
         <v>283.2149785723781</v>
       </c>
+      <c r="U523" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V523" t="inlineStr">
         <is>
           <t>N</t>
@@ -48004,6 +50614,11 @@
       <c r="T524">
         <v>62.82021618266753</v>
       </c>
+      <c r="U524" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V524" t="inlineStr">
         <is>
           <t>N</t>
@@ -48092,6 +50707,11 @@
       <c r="T525">
         <v>58.98263300231326</v>
       </c>
+      <c r="U525" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V525" t="inlineStr">
         <is>
           <t>N</t>
@@ -48180,6 +50800,11 @@
       <c r="T526">
         <v>27.92349668669754</v>
       </c>
+      <c r="U526" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V526" t="inlineStr">
         <is>
           <t>N</t>
@@ -48268,6 +50893,11 @@
       <c r="T527">
         <v>62.82021618266753</v>
       </c>
+      <c r="U527" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V527" t="inlineStr">
         <is>
           <t>N</t>
@@ -48356,6 +50986,11 @@
       <c r="T528">
         <v>18.73600713844023</v>
       </c>
+      <c r="U528" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V528" t="inlineStr">
         <is>
           <t>N</t>
@@ -48447,6 +51082,11 @@
       <c r="T529">
         <v>5.2</v>
       </c>
+      <c r="U529" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V529" t="inlineStr">
         <is>
           <t>N</t>
@@ -48538,6 +51178,11 @@
       <c r="T530">
         <v>4.8</v>
       </c>
+      <c r="U530" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V530" t="inlineStr">
         <is>
           <t>N</t>
@@ -48629,6 +51274,11 @@
       <c r="T531">
         <v>3.95</v>
       </c>
+      <c r="U531" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V531" t="inlineStr">
         <is>
           <t>N</t>
@@ -48720,6 +51370,11 @@
       <c r="T532">
         <v>2.4</v>
       </c>
+      <c r="U532" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V532" t="inlineStr">
         <is>
           <t>N</t>
@@ -48811,6 +51466,11 @@
       <c r="T533">
         <v>2.3</v>
       </c>
+      <c r="U533" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V533" t="inlineStr">
         <is>
           <t>N</t>
@@ -48902,6 +51562,11 @@
       <c r="T534">
         <v>2.2</v>
       </c>
+      <c r="U534" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V534" t="inlineStr">
         <is>
           <t>N</t>
@@ -48993,6 +51658,11 @@
       <c r="T535">
         <v>1.85</v>
       </c>
+      <c r="U535" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V535" t="inlineStr">
         <is>
           <t>N</t>
@@ -49084,6 +51754,11 @@
       <c r="T536">
         <v>1</v>
       </c>
+      <c r="U536" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V536" t="inlineStr">
         <is>
           <t>N</t>
@@ -49175,6 +51850,11 @@
       <c r="T537">
         <v>2.655</v>
       </c>
+      <c r="U537" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V537" t="inlineStr">
         <is>
           <t>N</t>
@@ -49266,6 +51946,11 @@
       <c r="T538">
         <v>2.655</v>
       </c>
+      <c r="U538" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V538" t="inlineStr">
         <is>
           <t>N</t>
@@ -49357,6 +52042,11 @@
       <c r="T539">
         <v>2.5</v>
       </c>
+      <c r="U539" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V539" t="inlineStr">
         <is>
           <t>N</t>
@@ -49448,6 +52138,11 @@
       <c r="T540">
         <v>17.58438260757584</v>
       </c>
+      <c r="U540" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V540" t="inlineStr">
         <is>
           <t>N</t>
@@ -49539,6 +52234,11 @@
       <c r="T541">
         <v>13.6105530896927</v>
       </c>
+      <c r="U541" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V541" t="inlineStr">
         <is>
           <t>N</t>
@@ -49630,6 +52330,11 @@
       <c r="T542">
         <v>12.16438191338728</v>
       </c>
+      <c r="U542" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V542" t="inlineStr">
         <is>
           <t>N</t>
@@ -49721,6 +52426,11 @@
       <c r="T543">
         <v>11.21735028286186</v>
       </c>
+      <c r="U543" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V543" t="inlineStr">
         <is>
           <t>N</t>
@@ -49812,6 +52522,11 @@
       <c r="T544">
         <v>9.21870446327994</v>
       </c>
+      <c r="U544" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V544" t="inlineStr">
         <is>
           <t>N</t>
@@ -49903,6 +52618,11 @@
       <c r="T545">
         <v>8.077126166234073</v>
       </c>
+      <c r="U545" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V545" t="inlineStr">
         <is>
           <t>N</t>
@@ -49994,6 +52714,11 @@
       <c r="T546">
         <v>6.975098475133409</v>
       </c>
+      <c r="U546" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V546" t="inlineStr">
         <is>
           <t>N</t>
@@ -50085,6 +52810,11 @@
       <c r="T547">
         <v>3.115221543190451</v>
       </c>
+      <c r="U547" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V547" t="inlineStr">
         <is>
           <t>N</t>
@@ -50176,6 +52906,11 @@
       <c r="T548">
         <v>3.385793162463274</v>
       </c>
+      <c r="U548" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V548" t="inlineStr">
         <is>
           <t>N</t>
@@ -50267,6 +53002,11 @@
       <c r="T549">
         <v>3.436384227518772</v>
       </c>
+      <c r="U549" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V549" t="inlineStr">
         <is>
           <t>N</t>
@@ -50358,6 +53098,11 @@
       <c r="T550">
         <v>2.90103337168946</v>
       </c>
+      <c r="U550" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V550" t="inlineStr">
         <is>
           <t>N</t>
@@ -50449,6 +53194,11 @@
       <c r="T551">
         <v>5.564085332203811</v>
       </c>
+      <c r="U551" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V551" t="inlineStr">
         <is>
           <t>N</t>
@@ -50540,6 +53290,11 @@
       <c r="T552">
         <v>1.933122439368856</v>
       </c>
+      <c r="U552" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V552" t="inlineStr">
         <is>
           <t>N</t>
@@ -50631,6 +53386,11 @@
       <c r="T553">
         <v>4.122777178876717</v>
       </c>
+      <c r="U553" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V553" t="inlineStr">
         <is>
           <t>N</t>
@@ -50722,6 +53482,11 @@
       <c r="T554">
         <v>1.477273225350065</v>
       </c>
+      <c r="U554" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V554" t="inlineStr">
         <is>
           <t>N</t>
@@ -50813,6 +53578,11 @@
       <c r="T555">
         <v>15.81468534294538</v>
       </c>
+      <c r="U555" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V555" t="inlineStr">
         <is>
           <t>N</t>
@@ -50904,6 +53674,11 @@
       <c r="T556">
         <v>11.76069904767508</v>
       </c>
+      <c r="U556" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V556" t="inlineStr">
         <is>
           <t>N</t>
@@ -50995,6 +53770,11 @@
       <c r="T557">
         <v>21.05184878347905</v>
       </c>
+      <c r="U557" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V557" t="inlineStr">
         <is>
           <t>N</t>
@@ -51086,6 +53866,11 @@
       <c r="T558">
         <v>17.58438260757584</v>
       </c>
+      <c r="U558" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V558" t="inlineStr">
         <is>
           <t>N</t>
@@ -51177,6 +53962,11 @@
       <c r="T559">
         <v>15.31542870993606</v>
       </c>
+      <c r="U559" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V559" t="inlineStr">
         <is>
           <t>N</t>
@@ -51268,6 +54058,11 @@
       <c r="T560">
         <v>13.6105530896927</v>
       </c>
+      <c r="U560" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V560" t="inlineStr">
         <is>
           <t>N</t>
@@ -51359,6 +54154,11 @@
       <c r="T561">
         <v>7.232335138395718</v>
       </c>
+      <c r="U561" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V561" t="inlineStr">
         <is>
           <t>N</t>
@@ -51450,6 +54250,11 @@
       <c r="T562">
         <v>12.16438191338728</v>
       </c>
+      <c r="U562" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V562" t="inlineStr">
         <is>
           <t>N</t>
@@ -51541,6 +54346,11 @@
       <c r="T563">
         <v>12.56234321091031</v>
       </c>
+      <c r="U563" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V563" t="inlineStr">
         <is>
           <t>N</t>
@@ -51632,6 +54442,11 @@
       <c r="T564">
         <v>9.21870446327994</v>
       </c>
+      <c r="U564" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V564" t="inlineStr">
         <is>
           <t>N</t>
@@ -51723,6 +54538,11 @@
       <c r="T565">
         <v>2.645144536218453</v>
       </c>
+      <c r="U565" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V565" t="inlineStr">
         <is>
           <t>N</t>
@@ -51814,6 +54634,11 @@
       <c r="T566">
         <v>8.840093085636136</v>
       </c>
+      <c r="U566" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V566" t="inlineStr">
         <is>
           <t>N</t>
@@ -51905,6 +54730,11 @@
       <c r="T567">
         <v>6.975098475133409</v>
       </c>
+      <c r="U567" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V567" t="inlineStr">
         <is>
           <t>N</t>
@@ -51996,6 +54826,11 @@
       <c r="T568">
         <v>3.998390387442861</v>
       </c>
+      <c r="U568" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V568" t="inlineStr">
         <is>
           <t>N</t>
@@ -52087,6 +54922,11 @@
       <c r="T569">
         <v>5.342473758669196</v>
       </c>
+      <c r="U569" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V569" t="inlineStr">
         <is>
           <t>N</t>
@@ -52178,6 +55018,11 @@
       <c r="T570">
         <v>4.875783875262356</v>
       </c>
+      <c r="U570" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V570" t="inlineStr">
         <is>
           <t>N</t>
@@ -52269,6 +55114,11 @@
       <c r="T571">
         <v>3.385793162463274</v>
       </c>
+      <c r="U571" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V571" t="inlineStr">
         <is>
           <t>N</t>
@@ -52360,6 +55210,11 @@
       <c r="T572">
         <v>1.990657056662795</v>
       </c>
+      <c r="U572" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V572" t="inlineStr">
         <is>
           <t>N</t>
@@ -52451,6 +55306,11 @@
       <c r="T573">
         <v>7.914744968693753</v>
       </c>
+      <c r="U573" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V573" t="inlineStr">
         <is>
           <t>N</t>
@@ -52542,6 +55402,11 @@
       <c r="T574">
         <v>10.50809481000852</v>
       </c>
+      <c r="U574" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V574" t="inlineStr">
         <is>
           <t>N</t>
@@ -52633,6 +55498,11 @@
       <c r="T575">
         <v>6.961952367017918</v>
       </c>
+      <c r="U575" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V575" t="inlineStr">
         <is>
           <t>N</t>
@@ -52724,6 +55594,11 @@
       <c r="T576">
         <v>8.61577705534031</v>
       </c>
+      <c r="U576" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V576" t="inlineStr">
         <is>
           <t>N</t>
@@ -52815,6 +55690,11 @@
       <c r="T577">
         <v>4.082429475821466</v>
       </c>
+      <c r="U577" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V577" t="inlineStr">
         <is>
           <t>N</t>
@@ -52906,6 +55786,11 @@
       <c r="T578">
         <v>4.90961114320634</v>
       </c>
+      <c r="U578" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V578" t="inlineStr">
         <is>
           <t>N</t>
@@ -52997,6 +55882,11 @@
       <c r="T579">
         <v>10.00502963814729</v>
       </c>
+      <c r="U579" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V579" t="inlineStr">
         <is>
           <t>N</t>
@@ -53088,6 +55978,11 @@
       <c r="T580">
         <v>10.00502963814729</v>
       </c>
+      <c r="U580" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V580" t="inlineStr">
         <is>
           <t>N</t>
@@ -53179,6 +56074,11 @@
       <c r="T581">
         <v>6.261851822108053</v>
       </c>
+      <c r="U581" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V581" t="inlineStr">
         <is>
           <t>N</t>
@@ -53270,6 +56170,11 @@
       <c r="T582">
         <v>1.43927095402817</v>
       </c>
+      <c r="U582" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V582" t="inlineStr">
         <is>
           <t>N</t>
@@ -53361,6 +56266,11 @@
       <c r="T583">
         <v>0.9595139693521195</v>
       </c>
+      <c r="U583" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V583" t="inlineStr">
         <is>
           <t>N</t>
@@ -53452,6 +56362,11 @@
       <c r="T584">
         <v>0.9595139693521195</v>
       </c>
+      <c r="U584" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V584" t="inlineStr">
         <is>
           <t>N</t>
@@ -53543,6 +56458,11 @@
       <c r="T585">
         <v>9.642059692022496</v>
       </c>
+      <c r="U585" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V585" t="inlineStr">
         <is>
           <t>N</t>
@@ -53634,6 +56554,11 @@
       <c r="T586">
         <v>8.570719726242247</v>
       </c>
+      <c r="U586" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V586" t="inlineStr">
         <is>
           <t>N</t>
@@ -53725,6 +56650,11 @@
       <c r="T587">
         <v>8.570719726242247</v>
       </c>
+      <c r="U587" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V587" t="inlineStr">
         <is>
           <t>N</t>
@@ -53816,6 +56746,11 @@
       <c r="T588">
         <v>54.77225575051661</v>
       </c>
+      <c r="U588" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V588" t="inlineStr">
         <is>
           <t>N</t>
@@ -53907,6 +56842,11 @@
       <c r="T589">
         <v>48.32846095633845</v>
       </c>
+      <c r="U589" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V589" t="inlineStr">
         <is>
           <t>N</t>
@@ -53998,6 +56938,11 @@
       <c r="T590">
         <v>48.32846095633845</v>
       </c>
+      <c r="U590" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V590" t="inlineStr">
         <is>
           <t>N</t>
@@ -54089,6 +57034,11 @@
       <c r="T591">
         <v>39.55655871510241</v>
       </c>
+      <c r="U591" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V591" t="inlineStr">
         <is>
           <t>N</t>
@@ -54180,6 +57130,11 @@
       <c r="T592">
         <v>49.2333773075614</v>
       </c>
+      <c r="U592" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V592" t="inlineStr">
         <is>
           <t>N</t>
@@ -54271,6 +57226,11 @@
       <c r="T593">
         <v>40.1233398190055</v>
       </c>
+      <c r="U593" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V593" t="inlineStr">
         <is>
           <t>N</t>
@@ -54362,6 +57322,11 @@
       <c r="T594">
         <v>45.70573338621411</v>
       </c>
+      <c r="U594" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V594" t="inlineStr">
         <is>
           <t>N</t>
@@ -54453,6 +57418,11 @@
       <c r="T595">
         <v>33.91041136195044</v>
       </c>
+      <c r="U595" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V595" t="inlineStr">
         <is>
           <t>N</t>
@@ -54544,6 +57514,11 @@
       <c r="T596">
         <v>37.50079287759295</v>
       </c>
+      <c r="U596" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V596" t="inlineStr">
         <is>
           <t>N</t>
@@ -54635,6 +57610,11 @@
       <c r="T597">
         <v>36.28750658789514</v>
       </c>
+      <c r="U597" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V597" t="inlineStr">
         <is>
           <t>N</t>
@@ -54726,6 +57706,11 @@
       <c r="T598">
         <v>31.27048245048104</v>
       </c>
+      <c r="U598" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V598" t="inlineStr">
         <is>
           <t>N</t>
@@ -54817,6 +57802,11 @@
       <c r="T599">
         <v>32.99454800587517</v>
       </c>
+      <c r="U599" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V599" t="inlineStr">
         <is>
           <t>N</t>
@@ -54908,6 +57898,11 @@
       <c r="T600">
         <v>28.39776936046893</v>
       </c>
+      <c r="U600" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V600" t="inlineStr">
         <is>
           <t>N</t>
@@ -54999,6 +57994,11 @@
       <c r="T601">
         <v>140.9934614603149</v>
       </c>
+      <c r="U601" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V601" t="inlineStr">
         <is>
           <t>N</t>
@@ -55090,6 +58090,11 @@
       <c r="T602">
         <v>85.42655429116732</v>
       </c>
+      <c r="U602" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V602" t="inlineStr">
         <is>
           <t>N</t>
@@ -55181,6 +58186,11 @@
       <c r="T603">
         <v>81.9990830825797</v>
       </c>
+      <c r="U603" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V603" t="inlineStr">
         <is>
           <t>N</t>
@@ -55272,6 +58282,11 @@
       <c r="T604">
         <v>78.06930283962544</v>
       </c>
+      <c r="U604" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V604" t="inlineStr">
         <is>
           <t>N</t>
@@ -55363,6 +58378,11 @@
       <c r="T605">
         <v>62.53315269862605</v>
       </c>
+      <c r="U605" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V605" t="inlineStr">
         <is>
           <t>N</t>
@@ -55454,6 +58474,11 @@
       <c r="T606">
         <v>65.75564737272607</v>
       </c>
+      <c r="U606" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V606" t="inlineStr">
         <is>
           <t>N</t>
@@ -55545,6 +58570,11 @@
       <c r="T607">
         <v>41.34272755649271</v>
       </c>
+      <c r="U607" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V607" t="inlineStr">
         <is>
           <t>N</t>
@@ -55636,6 +58666,11 @@
       <c r="T608">
         <v>37.93417689923331</v>
       </c>
+      <c r="U608" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V608" t="inlineStr">
         <is>
           <t>N</t>
@@ -55727,6 +58762,11 @@
       <c r="T609">
         <v>31.29178117109997</v>
       </c>
+      <c r="U609" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V609" t="inlineStr">
         <is>
           <t>N</t>
@@ -55818,6 +58858,11 @@
       <c r="T610">
         <v>23.33407740780396</v>
       </c>
+      <c r="U610" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V610" t="inlineStr">
         <is>
           <t>N</t>
@@ -55909,6 +58954,11 @@
       <c r="T611">
         <v>1.7</v>
       </c>
+      <c r="U611" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V611" t="inlineStr">
         <is>
           <t>N</t>
@@ -56000,6 +59050,11 @@
       <c r="T612">
         <v>1.4</v>
       </c>
+      <c r="U612" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V612" t="inlineStr">
         <is>
           <t>N</t>
@@ -56091,6 +59146,11 @@
       <c r="T613">
         <v>1.7</v>
       </c>
+      <c r="U613" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V613" t="inlineStr">
         <is>
           <t>N</t>
@@ -56182,6 +59242,11 @@
       <c r="T614">
         <v>1.4</v>
       </c>
+      <c r="U614" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V614" t="inlineStr">
         <is>
           <t>N</t>
@@ -56273,6 +59338,11 @@
       <c r="T615">
         <v>5.544253040554983</v>
       </c>
+      <c r="U615" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V615" t="inlineStr">
         <is>
           <t>N</t>
@@ -56364,6 +59434,11 @@
       <c r="T616">
         <v>3.161460850737162</v>
       </c>
+      <c r="U616" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V616" t="inlineStr">
         <is>
           <t>N</t>
@@ -56455,6 +59530,11 @@
       <c r="T617">
         <v>56.77725609487192</v>
       </c>
+      <c r="U617" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V617" t="inlineStr">
         <is>
           <t>N</t>
@@ -56546,6 +59626,11 @@
       <c r="T618">
         <v>58.0826509010516</v>
       </c>
+      <c r="U618" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V618" t="inlineStr">
         <is>
           <t>N</t>
@@ -56637,6 +59722,11 @@
       <c r="T619">
         <v>2592.435225806038</v>
       </c>
+      <c r="U619" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V619" t="inlineStr">
         <is>
           <t>N</t>
@@ -56728,6 +59818,11 @@
       <c r="T620">
         <v>2025.12261357183</v>
       </c>
+      <c r="U620" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V620" t="inlineStr">
         <is>
           <t>N</t>
@@ -56819,6 +59914,11 @@
       <c r="T621">
         <v>395.9171630530811</v>
       </c>
+      <c r="U621" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V621" t="inlineStr">
         <is>
           <t>N</t>
@@ -56910,6 +60010,11 @@
       <c r="T622">
         <v>373.7812194319025</v>
       </c>
+      <c r="U622" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V622" t="inlineStr">
         <is>
           <t>N</t>
@@ -57001,6 +60106,11 @@
       <c r="T623">
         <v>251.0848462173693</v>
       </c>
+      <c r="U623" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V623" t="inlineStr">
         <is>
           <t>N</t>
@@ -57092,6 +60202,11 @@
       <c r="T624">
         <v>24.03331021727968</v>
       </c>
+      <c r="U624" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V624" t="inlineStr">
         <is>
           <t>N</t>
@@ -57183,6 +60298,11 @@
       <c r="T625">
         <v>11.38419957660617</v>
       </c>
+      <c r="U625" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V625" t="inlineStr">
         <is>
           <t>N</t>
@@ -57274,6 +60394,11 @@
       <c r="T626">
         <v>9.486832980505138</v>
       </c>
+      <c r="U626" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V626" t="inlineStr">
         <is>
           <t>N</t>
@@ -57365,6 +60490,11 @@
       <c r="T627">
         <v>1.897366596101028</v>
       </c>
+      <c r="U627" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V627" t="inlineStr">
         <is>
           <t>N</t>
@@ -57456,6 +60586,11 @@
       <c r="T628">
         <v>13.89855741813102</v>
       </c>
+      <c r="U628" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V628" t="inlineStr">
         <is>
           <t>N</t>
@@ -57547,6 +60682,11 @@
       <c r="T629">
         <v>9.265704945420678</v>
       </c>
+      <c r="U629" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V629" t="inlineStr">
         <is>
           <t>N</t>
@@ -57638,6 +60778,11 @@
       <c r="T630">
         <v>54.59273899660771</v>
       </c>
+      <c r="U630" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V630" t="inlineStr">
         <is>
           <t>N</t>
@@ -57729,6 +60874,11 @@
       <c r="T631">
         <v>47.55186017710529</v>
       </c>
+      <c r="U631" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V631" t="inlineStr">
         <is>
           <t>N</t>
@@ -57820,6 +60970,11 @@
       <c r="T632">
         <v>44.01209849074822</v>
       </c>
+      <c r="U632" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V632" t="inlineStr">
         <is>
           <t>N</t>
@@ -57911,6 +61066,11 @@
       <c r="T633">
         <v>33.90000000000001</v>
       </c>
+      <c r="U633" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V633" t="inlineStr">
         <is>
           <t>N</t>
@@ -58002,6 +61162,11 @@
       <c r="T634">
         <v>145.9348528903757</v>
       </c>
+      <c r="U634" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V634" t="inlineStr">
         <is>
           <t>N</t>
@@ -58093,6 +61258,11 @@
       <c r="T635">
         <v>62.54350838158958</v>
       </c>
+      <c r="U635" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V635" t="inlineStr">
         <is>
           <t>N</t>
@@ -58184,6 +61354,11 @@
       <c r="T636">
         <v>74.12442175512014</v>
       </c>
+      <c r="U636" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V636" t="inlineStr">
         <is>
           <t>N</t>
@@ -58275,6 +61450,11 @@
       <c r="T637">
         <v>47.55186017710529</v>
       </c>
+      <c r="U637" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V637" t="inlineStr">
         <is>
           <t>N</t>
@@ -58366,6 +61546,11 @@
       <c r="T638">
         <v>46.49927292660171</v>
       </c>
+      <c r="U638" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V638" t="inlineStr">
         <is>
           <t>N</t>
@@ -58457,6 +61642,11 @@
       <c r="T639">
         <v>46.49927292660119</v>
       </c>
+      <c r="U639" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V639" t="inlineStr">
         <is>
           <t>N</t>
@@ -58548,6 +61738,11 @@
       <c r="T640">
         <v>32.99144395369249</v>
       </c>
+      <c r="U640" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V640" t="inlineStr">
         <is>
           <t>N</t>
@@ -58639,6 +61834,11 @@
       <c r="T641">
         <v>31.05077077994615</v>
       </c>
+      <c r="U641" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V641" t="inlineStr">
         <is>
           <t>N</t>
@@ -58727,6 +61927,11 @@
       <c r="T642">
         <v>29.5</v>
       </c>
+      <c r="U642" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V642" t="inlineStr">
         <is>
           <t>N</t>
@@ -58815,6 +62020,11 @@
       <c r="T643">
         <v>17</v>
       </c>
+      <c r="U643" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V643" t="inlineStr">
         <is>
           <t>N</t>
@@ -58903,6 +62113,11 @@
       <c r="T644">
         <v>19.7</v>
       </c>
+      <c r="U644" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V644" t="inlineStr">
         <is>
           <t>N</t>
@@ -58991,6 +62206,11 @@
       <c r="T645">
         <v>14.8</v>
       </c>
+      <c r="U645" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V645" t="inlineStr">
         <is>
           <t>N</t>
@@ -59079,6 +62299,11 @@
       <c r="T646">
         <v>12.8</v>
       </c>
+      <c r="U646" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V646" t="inlineStr">
         <is>
           <t>N</t>
@@ -59167,6 +62392,11 @@
       <c r="T647">
         <v>27.3362396828825</v>
       </c>
+      <c r="U647" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V647" t="inlineStr">
         <is>
           <t>N</t>
@@ -59255,6 +62485,11 @@
       <c r="T648">
         <v>158.457735710065</v>
       </c>
+      <c r="U648" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V648" t="inlineStr">
         <is>
           <t>N</t>
@@ -59343,6 +62578,11 @@
       <c r="T649">
         <v>28.37181700208853</v>
       </c>
+      <c r="U649" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V649" t="inlineStr">
         <is>
           <t>N</t>
@@ -59431,6 +62671,11 @@
       <c r="T650">
         <v>53.35850447679358</v>
       </c>
+      <c r="U650" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V650" t="inlineStr">
         <is>
           <t>N</t>
@@ -59522,6 +62767,11 @@
       <c r="T651">
         <v>1.131370849898476</v>
       </c>
+      <c r="U651" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V651" t="inlineStr">
         <is>
           <t>N</t>
@@ -59613,6 +62863,11 @@
       <c r="T652">
         <v>0.848528137423857</v>
       </c>
+      <c r="U652" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V652" t="inlineStr">
         <is>
           <t>N</t>
@@ -59704,6 +62959,11 @@
       <c r="T653">
         <v>0.848528137423857</v>
       </c>
+      <c r="U653" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V653" t="inlineStr">
         <is>
           <t>N</t>
@@ -59792,6 +63052,11 @@
       <c r="T654">
         <v>1.926815069501167</v>
       </c>
+      <c r="U654" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V654" t="inlineStr">
         <is>
           <t>N</t>
@@ -59880,6 +63145,11 @@
       <c r="T655">
         <v>2.504729660788834</v>
       </c>
+      <c r="U655" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V655" t="inlineStr">
         <is>
           <t>N</t>
@@ -59968,6 +63238,11 @@
       <c r="T656">
         <v>17.61525197681645</v>
       </c>
+      <c r="U656" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V656" t="inlineStr">
         <is>
           <t>N</t>
@@ -60056,6 +63331,11 @@
       <c r="T657">
         <v>17.05190605181726</v>
       </c>
+      <c r="U657" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V657" t="inlineStr">
         <is>
           <t>N</t>
@@ -60147,6 +63427,11 @@
       <c r="T658">
         <v>14.5</v>
       </c>
+      <c r="U658" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V658" t="inlineStr">
         <is>
           <t>N</t>
@@ -60238,6 +63523,11 @@
       <c r="T659">
         <v>5.4</v>
       </c>
+      <c r="U659" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V659" t="inlineStr">
         <is>
           <t>N</t>
@@ -60329,6 +63619,11 @@
       <c r="T660">
         <v>18.3</v>
       </c>
+      <c r="U660" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V660" t="inlineStr">
         <is>
           <t>N</t>
@@ -60420,6 +63715,11 @@
       <c r="T661">
         <v>15.7</v>
       </c>
+      <c r="U661" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V661" t="inlineStr">
         <is>
           <t>N</t>
@@ -60511,6 +63811,11 @@
       <c r="T662">
         <v>9.699999999999999</v>
       </c>
+      <c r="U662" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V662" t="inlineStr">
         <is>
           <t>N</t>
@@ -60602,6 +63907,11 @@
       <c r="T663">
         <v>14.7</v>
       </c>
+      <c r="U663" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V663" t="inlineStr">
         <is>
           <t>N</t>
@@ -60693,6 +64003,11 @@
       <c r="T664">
         <v>9.9</v>
       </c>
+      <c r="U664" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V664" t="inlineStr">
         <is>
           <t>N</t>
@@ -60784,6 +64099,11 @@
       <c r="T665">
         <v>8</v>
       </c>
+      <c r="U665" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V665" t="inlineStr">
         <is>
           <t>N</t>
@@ -60875,6 +64195,11 @@
       <c r="T666">
         <v>7.1</v>
       </c>
+      <c r="U666" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V666" t="inlineStr">
         <is>
           <t>N</t>
@@ -60966,6 +64291,11 @@
       <c r="T667">
         <v>4.6</v>
       </c>
+      <c r="U667" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V667" t="inlineStr">
         <is>
           <t>N</t>
@@ -61057,6 +64387,11 @@
       <c r="T668">
         <v>6.5</v>
       </c>
+      <c r="U668" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V668" t="inlineStr">
         <is>
           <t>N</t>
@@ -61148,6 +64483,11 @@
       <c r="T669">
         <v>6.4</v>
       </c>
+      <c r="U669" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V669" t="inlineStr">
         <is>
           <t>N</t>
@@ -61239,6 +64579,11 @@
       <c r="T670">
         <v>14.6</v>
       </c>
+      <c r="U670" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V670" t="inlineStr">
         <is>
           <t>N</t>
@@ -61330,6 +64675,11 @@
       <c r="T671">
         <v>16.8</v>
       </c>
+      <c r="U671" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V671" t="inlineStr">
         <is>
           <t>N</t>
@@ -61421,6 +64771,11 @@
       <c r="T672">
         <v>32.5</v>
       </c>
+      <c r="U672" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V672" t="inlineStr">
         <is>
           <t>N</t>
@@ -61512,6 +64867,11 @@
       <c r="T673">
         <v>16.3</v>
       </c>
+      <c r="U673" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V673" t="inlineStr">
         <is>
           <t>N</t>
@@ -61603,6 +64963,11 @@
       <c r="T674">
         <v>29.9</v>
       </c>
+      <c r="U674" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V674" t="inlineStr">
         <is>
           <t>N</t>
@@ -61694,6 +65059,11 @@
       <c r="T675">
         <v>4.1</v>
       </c>
+      <c r="U675" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V675" t="inlineStr">
         <is>
           <t>N</t>
@@ -61785,6 +65155,11 @@
       <c r="T676">
         <v>21.2</v>
       </c>
+      <c r="U676" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V676" t="inlineStr">
         <is>
           <t>N</t>
@@ -61876,6 +65251,11 @@
       <c r="T677">
         <v>15.2</v>
       </c>
+      <c r="U677" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V677" t="inlineStr">
         <is>
           <t>N</t>
@@ -61967,6 +65347,11 @@
       <c r="T678">
         <v>12.1</v>
       </c>
+      <c r="U678" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V678" t="inlineStr">
         <is>
           <t>N</t>
@@ -62058,6 +65443,11 @@
       <c r="T679">
         <v>10.3</v>
       </c>
+      <c r="U679" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V679" t="inlineStr">
         <is>
           <t>N</t>
@@ -62149,6 +65539,11 @@
       <c r="T680">
         <v>7.5</v>
       </c>
+      <c r="U680" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V680" t="inlineStr">
         <is>
           <t>N</t>
@@ -62240,6 +65635,11 @@
       <c r="T681">
         <v>7.6</v>
       </c>
+      <c r="U681" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V681" t="inlineStr">
         <is>
           <t>N</t>
@@ -62331,6 +65731,11 @@
       <c r="T682">
         <v>14.8</v>
       </c>
+      <c r="U682" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V682" t="inlineStr">
         <is>
           <t>N</t>
@@ -62422,6 +65827,11 @@
       <c r="T683">
         <v>5.4</v>
       </c>
+      <c r="U683" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V683" t="inlineStr">
         <is>
           <t>N</t>
@@ -62513,6 +65923,11 @@
       <c r="T684">
         <v>14.5</v>
       </c>
+      <c r="U684" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V684" t="inlineStr">
         <is>
           <t>N</t>
@@ -62604,6 +66019,11 @@
       <c r="T685">
         <v>13.7</v>
       </c>
+      <c r="U685" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V685" t="inlineStr">
         <is>
           <t>N</t>
@@ -62695,6 +66115,11 @@
       <c r="T686">
         <v>15.7</v>
       </c>
+      <c r="U686" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V686" t="inlineStr">
         <is>
           <t>N</t>
@@ -62786,6 +66211,11 @@
       <c r="T687">
         <v>9.6</v>
       </c>
+      <c r="U687" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V687" t="inlineStr">
         <is>
           <t>N</t>
@@ -62877,6 +66307,11 @@
       <c r="T688">
         <v>18.3</v>
       </c>
+      <c r="U688" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V688" t="inlineStr">
         <is>
           <t>N</t>
@@ -62968,6 +66403,11 @@
       <c r="T689">
         <v>9.699999999999999</v>
       </c>
+      <c r="U689" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V689" t="inlineStr">
         <is>
           <t>N</t>
@@ -63059,6 +66499,11 @@
       <c r="T690">
         <v>9.9</v>
       </c>
+      <c r="U690" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V690" t="inlineStr">
         <is>
           <t>N</t>
@@ -63150,6 +66595,11 @@
       <c r="T691">
         <v>8</v>
       </c>
+      <c r="U691" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V691" t="inlineStr">
         <is>
           <t>N</t>
@@ -63241,6 +66691,11 @@
       <c r="T692">
         <v>11.8</v>
       </c>
+      <c r="U692" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V692" t="inlineStr">
         <is>
           <t>N</t>
@@ -63332,6 +66787,11 @@
       <c r="T693">
         <v>12.1</v>
       </c>
+      <c r="U693" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V693" t="inlineStr">
         <is>
           <t>N</t>
@@ -63423,6 +66883,11 @@
       <c r="T694">
         <v>14.6</v>
       </c>
+      <c r="U694" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V694" t="inlineStr">
         <is>
           <t>N</t>
@@ -63514,6 +66979,11 @@
       <c r="T695">
         <v>14</v>
       </c>
+      <c r="U695" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V695" t="inlineStr">
         <is>
           <t>N</t>
@@ -63605,6 +67075,11 @@
       <c r="T696">
         <v>32.5</v>
       </c>
+      <c r="U696" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V696" t="inlineStr">
         <is>
           <t>N</t>
@@ -63696,6 +67171,11 @@
       <c r="T697">
         <v>29.9</v>
       </c>
+      <c r="U697" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V697" t="inlineStr">
         <is>
           <t>N</t>
@@ -63787,6 +67267,11 @@
       <c r="T698">
         <v>16.8</v>
       </c>
+      <c r="U698" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V698" t="inlineStr">
         <is>
           <t>N</t>
@@ -63878,6 +67363,11 @@
       <c r="T699">
         <v>22.8</v>
       </c>
+      <c r="U699" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V699" t="inlineStr">
         <is>
           <t>N</t>
@@ -63969,6 +67459,11 @@
       <c r="T700">
         <v>21.2</v>
       </c>
+      <c r="U700" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V700" t="inlineStr">
         <is>
           <t>N</t>
@@ -64060,6 +67555,11 @@
       <c r="T701">
         <v>12.1</v>
       </c>
+      <c r="U701" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V701" t="inlineStr">
         <is>
           <t>N</t>
@@ -64151,6 +67651,11 @@
       <c r="T702">
         <v>23.4</v>
       </c>
+      <c r="U702" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V702" t="inlineStr">
         <is>
           <t>N</t>
@@ -64242,6 +67747,11 @@
       <c r="T703">
         <v>13.4</v>
       </c>
+      <c r="U703" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V703" t="inlineStr">
         <is>
           <t>N</t>
@@ -64333,6 +67843,11 @@
       <c r="T704">
         <v>10.2</v>
       </c>
+      <c r="U704" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
       <c r="V704" t="inlineStr">
         <is>
           <t>N</t>
@@ -64423,6 +67938,11 @@
       </c>
       <c r="T705">
         <v>7.7</v>
+      </c>
+      <c r="U705" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
       </c>
       <c r="V705" t="inlineStr">
         <is>
